--- a/election_votar_data/LOHAGARA/CHUNATI/152614/152614_com_1678_male_without_photo_95_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152614/152614_com_1678_male_without_photo_95_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="47" customWidth="1" min="4" max="4"/>
     <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="47.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৩/০২/১৯৯৭</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৩/০২/১৯৯৭</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G75" s="3" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী/জন্ম তারিখ:০১/১২/১৯৯৬</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G121" s="3" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:১৫/১২/১৯৭৭</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G161" s="3" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১০/০২/১৯৯৮</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G169" s="3" t="inlineStr">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী/জন্ম তারিখ:১৩/১১/১৯৯৮</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G172" s="3" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০৬/১৯৯৬</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G175" s="3" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০১/১৯৯৮</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G189" s="3" t="inlineStr">
@@ -15729,7 +15729,7 @@
       </c>
       <c r="F364" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০৫/০৩/২০০৩</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G364" s="3" t="inlineStr">
@@ -20077,7 +20077,7 @@
       </c>
       <c r="B468" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হারুন রশিদ</t>
+          <t>মোহাম্মদ রশিদ</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr">
@@ -20139,7 +20139,7 @@
       </c>
       <c r="F469" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৭/০১/২০০৩</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G469" s="3" t="inlineStr">
@@ -20450,27 +20450,27 @@
     <row r="477">
       <c r="A477" s="3" t="inlineStr">
         <is>
-          <t>০২৪৬</t>
+          <t>০২৪৫</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
         <is>
-          <t>বারেক</t>
+          <t>মীর আহমেদ</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭১৯</t>
+          <t>১৫২৬১৪৮২১৭১৮</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>নুরুল কবির</t>
+          <t>আবদুল আজিজ</t>
         </is>
       </c>
       <c r="E477" s="4" t="inlineStr">
         <is>
-          <t>নুরুন নাহর</t>
+          <t>আবেদা খাতুন</t>
         </is>
       </c>
       <c r="F477" s="3" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="G477" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৮৫</t>
+          <t>১০/০২/১৯৮৪</t>
         </is>
       </c>
       <c r="H477" s="5" t="inlineStr">
@@ -20492,27 +20492,27 @@
     <row r="478">
       <c r="A478" s="3" t="inlineStr">
         <is>
-          <t>০৭২৭</t>
+          <t>০২৪৬</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>ফরিদ আহমদ</t>
+          <t>বারেক</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯৩৩</t>
+          <t>১৫২৬১৪৮২১৭১৯</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>ছৈয়দ হোসেন</t>
+          <t>নুরুল কবির</t>
         </is>
       </c>
       <c r="E478" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান</t>
+          <t>নুরুন নাহর</t>
         </is>
       </c>
       <c r="F478" s="3" t="inlineStr">
@@ -20522,7 +20522,7 @@
       </c>
       <c r="G478" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৩/১৯৮৮</t>
+          <t>০১/০৩/১৯৮৫</t>
         </is>
       </c>
       <c r="H478" s="5" t="inlineStr">
@@ -20534,37 +20534,37 @@
     <row r="479">
       <c r="A479" s="3" t="inlineStr">
         <is>
-          <t>০৭২৪</t>
+          <t>০৭২৭</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
         <is>
-          <t>জসিম উদ্দীন</t>
+          <t>ফরিদ আহমদ</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯২৭</t>
+          <t>১৫২৬১৪৮২৬৯৩৩</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>তজু মিয়া</t>
+          <t>ছৈয়দ হোসেন</t>
         </is>
       </c>
       <c r="E479" s="4" t="inlineStr">
         <is>
-          <t>আনজুমান আরা বেগম</t>
+          <t>নুর জাহান</t>
         </is>
       </c>
       <c r="F479" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G479" s="3" t="inlineStr">
         <is>
-          <t>০৩/১২/১৯৮৮</t>
+          <t>০৮/০৩/১৯৮৮</t>
         </is>
       </c>
       <c r="H479" s="5" t="inlineStr">
@@ -20576,37 +20576,37 @@
     <row r="480">
       <c r="A480" s="3" t="inlineStr">
         <is>
-          <t>০২৫১</t>
+          <t>০৭২৪</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নুরুচ্ছফা</t>
+          <t>জসিম উদ্দীন</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭২৭</t>
+          <t>১৫২৬১৪৮২৬৯২৭</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হাসন</t>
+          <t>তজু মিয়া</t>
         </is>
       </c>
       <c r="E480" s="4" t="inlineStr">
         <is>
-          <t>মায়মুনা বেগম</t>
+          <t>আনজুমান আরা বেগম</t>
         </is>
       </c>
       <c r="F480" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ:১০/০৩/১৯৮৪</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G480" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৮৪</t>
+          <t>০৩/১২/১৯৮৮</t>
         </is>
       </c>
       <c r="H480" s="5" t="inlineStr">
@@ -20618,27 +20618,27 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>০৭২২</t>
+          <t>০২৫১</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
         <is>
-          <t>জসিম উদ্দীন</t>
+          <t>মোহাম্মদ নুরুচ্ছফা</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯২৫</t>
+          <t>১৫২৬১৪৮২১৭২৭</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>মোজাহের মিয়া</t>
+          <t>মোহাম্মদ হাসন</t>
         </is>
       </c>
       <c r="E481" s="4" t="inlineStr">
         <is>
-          <t>আরেছা বেগম</t>
+          <t>মায়মুনা বেগম</t>
         </is>
       </c>
       <c r="F481" s="3" t="inlineStr">
@@ -20648,7 +20648,7 @@
       </c>
       <c r="G481" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৮৩</t>
+          <t>১০/০৩/১৯৮৪</t>
         </is>
       </c>
       <c r="H481" s="5" t="inlineStr">
@@ -20660,27 +20660,27 @@
     <row r="482">
       <c r="A482" s="3" t="inlineStr">
         <is>
-          <t>০৭২১</t>
+          <t>০৭২২</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
         <is>
-          <t>শাহ জাহান</t>
+          <t>জসিম উদ্দীন</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯১৪</t>
+          <t>১৫২৬১৪৮২৬৯২৫</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>খোরশেদ আলম</t>
+          <t>মোজাহের মিয়া</t>
         </is>
       </c>
       <c r="E482" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা</t>
+          <t>আরেছা বেগম</t>
         </is>
       </c>
       <c r="F482" s="3" t="inlineStr">
@@ -20690,7 +20690,7 @@
       </c>
       <c r="G482" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৬৭</t>
+          <t>১০/০২/১৯৮৩</t>
         </is>
       </c>
       <c r="H482" s="5" t="inlineStr">
@@ -20702,37 +20702,37 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>০৭২০</t>
+          <t>০৭২১</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইব্রাহীম</t>
+          <t>শাহ জাহান</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯১২</t>
+          <t>১৫২৬১৪৮২৬৯১৪</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>আমীর আহমদ</t>
+          <t>খোরশেদ আলম</t>
         </is>
       </c>
       <c r="E483" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>আনোয়ারা</t>
         </is>
       </c>
       <c r="F483" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G483" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৩/১৯৮৭</t>
+          <t>১০/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H483" s="5" t="inlineStr">
@@ -20744,37 +20744,37 @@
     <row r="484">
       <c r="A484" s="3" t="inlineStr">
         <is>
-          <t>০২৫৫</t>
+          <t>০৭২০</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ হোসেন</t>
+          <t>মোহাম্মদ ইব্রাহীম</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৩৩</t>
+          <t>১৫২৬১৪৮২৬৯১২</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>অভিউর রহমান</t>
+          <t>আমীর আহমদ</t>
         </is>
       </c>
       <c r="E484" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F484" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ:১০/০২/১৯৮৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G484" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৮৩</t>
+          <t>০৫/০৩/১৯৮৭</t>
         </is>
       </c>
       <c r="H484" s="5" t="inlineStr">
@@ -20786,37 +20786,37 @@
     <row r="485">
       <c r="A485" s="3" t="inlineStr">
         <is>
-          <t>০৭২৯</t>
+          <t>০২৫৫</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
         <is>
-          <t>ইফতেখারুল হোসেন রানা</t>
+          <t>মুহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯৩৫</t>
+          <t>১৫২৬১৪৮২১৭৩৩</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ হোসেন</t>
+          <t>অভিউর রহমান</t>
         </is>
       </c>
       <c r="E485" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F485" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসায়ী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G485" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/১৯৮৭</t>
+          <t>১০/০২/১৯৮৩</t>
         </is>
       </c>
       <c r="H485" s="5" t="inlineStr">
@@ -20828,37 +20828,37 @@
     <row r="486">
       <c r="A486" s="3" t="inlineStr">
         <is>
-          <t>০২৫৭</t>
+          <t>০৭২৯</t>
         </is>
       </c>
       <c r="B486" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ হাসন</t>
+          <t>ইফতেখারুল হোসেন রানা</t>
         </is>
       </c>
       <c r="C486" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৩৫</t>
+          <t>১৫২৬১৪৮২৬৯৩৫</t>
         </is>
       </c>
       <c r="D486" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমেদ</t>
+          <t>মুহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="E486" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F486" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:০৮/০১/১৯৭৮</t>
+          <t>ব্যবসায়ী</t>
         </is>
       </c>
       <c r="G486" s="3" t="inlineStr">
         <is>
-          <t>০৮/০১/১৯৭৮</t>
+          <t>০৩/০২/১৯৮৭</t>
         </is>
       </c>
       <c r="H486" s="5" t="inlineStr">
@@ -20870,27 +20870,27 @@
     <row r="487">
       <c r="A487" s="3" t="inlineStr">
         <is>
-          <t>০২৭২</t>
+          <t>০৫৪৩</t>
         </is>
       </c>
       <c r="B487" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আবসার</t>
+          <t>মোঃ সেলিম উদ্দিন</t>
         </is>
       </c>
       <c r="C487" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৮০৪</t>
+          <t>১৫২৬১৪৮২৬৪৭৫</t>
         </is>
       </c>
       <c r="D487" s="4" t="inlineStr">
         <is>
-          <t>আবু হেয়দ</t>
+          <t>আশরাফ আলী</t>
         </is>
       </c>
       <c r="E487" s="4" t="inlineStr">
         <is>
-          <t>রওশন আখতার</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F487" s="3" t="inlineStr">
@@ -20900,7 +20900,7 @@
       </c>
       <c r="G487" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৮৯</t>
+          <t>১৫/০১/১৯৮৬</t>
         </is>
       </c>
       <c r="H487" s="5" t="inlineStr">
@@ -20912,37 +20912,37 @@
     <row r="488">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>০২৭১</t>
+          <t>০২৭২</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মাদ আবু</t>
+          <t>নুরুল আবসার</t>
         </is>
       </c>
       <c r="C488" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৯৮</t>
+          <t>১৫২৬১৪৮২১৮০৪</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>আমীর হোসেন</t>
+          <t>আবু হেয়দ</t>
         </is>
       </c>
       <c r="E488" s="4" t="inlineStr">
         <is>
-          <t>দিলু আরা বেগম</t>
+          <t>রওশন আখতার</t>
         </is>
       </c>
       <c r="F488" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G488" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৭৪</t>
+          <t>১০/০৩/১৯৮৯</t>
         </is>
       </c>
       <c r="H488" s="5" t="inlineStr">
@@ -20954,37 +20954,37 @@
     <row r="489">
       <c r="A489" s="3" t="inlineStr">
         <is>
-          <t>০৭১৯</t>
+          <t>০২৫৭</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
         <is>
-          <t>আজিজ আহমদ</t>
+          <t>মুহাম্মদ হাসন</t>
         </is>
       </c>
       <c r="C489" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯০৭</t>
+          <t>১৫২৬১৪৮২১৭৩৫</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>শেখ আহমদ</t>
+          <t>নজির আহমেদ</t>
         </is>
       </c>
       <c r="E489" s="4" t="inlineStr">
         <is>
-          <t>শাহেদা বেগম</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F489" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসায়ী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G489" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৮২</t>
+          <t>০৮/০১/১৯৭৮</t>
         </is>
       </c>
       <c r="H489" s="5" t="inlineStr">
@@ -20996,27 +20996,27 @@
     <row r="490">
       <c r="A490" s="3" t="inlineStr">
         <is>
-          <t>০২৭০</t>
+          <t>০২৫৮</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আলম</t>
+          <t>নুরুল কবির</t>
         </is>
       </c>
       <c r="C490" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৯৭</t>
+          <t>১৫২৬১৪৮২১৭৩৬</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
         <is>
-          <t>শফিকুর রহমান</t>
+          <t>লাল মিয়া</t>
         </is>
       </c>
       <c r="E490" s="4" t="inlineStr">
         <is>
-          <t>মুনিরা বেগম</t>
+          <t>জামিলা খাতুন</t>
         </is>
       </c>
       <c r="F490" s="3" t="inlineStr">
@@ -21026,7 +21026,7 @@
       </c>
       <c r="G490" s="3" t="inlineStr">
         <is>
-          <t>০২/০৩/১৯৬৮</t>
+          <t>১২/০৩/১৯৫৩</t>
         </is>
       </c>
       <c r="H490" s="5" t="inlineStr">
@@ -21038,37 +21038,37 @@
     <row r="491">
       <c r="A491" s="3" t="inlineStr">
         <is>
-          <t>০২৬৯</t>
+          <t>০২৫৯</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
         <is>
-          <t>খলিলুর রহমান</t>
+          <t>মোহাম্মদ মুহীউদ্দীন</t>
         </is>
       </c>
       <c r="C491" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৯৬</t>
+          <t>১৫২৬১৪৮২১৭৩৭</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
         <is>
-          <t>আতর আলী</t>
+          <t>শমসুল আলম</t>
         </is>
       </c>
       <c r="E491" s="4" t="inlineStr">
         <is>
-          <t>নচিমা বেগম</t>
+          <t>আয়েশা খাতুন</t>
         </is>
       </c>
       <c r="F491" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G491" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৩/১৯৬৮</t>
+          <t>০৪/০৩/১৯৮৩</t>
         </is>
       </c>
       <c r="H491" s="5" t="inlineStr">
@@ -21080,37 +21080,37 @@
     <row r="492">
       <c r="A492" s="3" t="inlineStr">
         <is>
-          <t>০২৬৮</t>
+          <t>০২৭১</t>
         </is>
       </c>
       <c r="B492" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মাদ জাফর আলম</t>
+          <t>মুহাম্মাদ আবু</t>
         </is>
       </c>
       <c r="C492" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৯৫</t>
+          <t>১৫২৬১৪৮২১৭৯৮</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>আমীর আহমদ</t>
+          <t>আমীর হোসেন</t>
         </is>
       </c>
       <c r="E492" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>দিলু আরা বেগম</t>
         </is>
       </c>
       <c r="F492" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G492" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/১৯৮৫</t>
+          <t>০৫/০১/১৯৭৪</t>
         </is>
       </c>
       <c r="H492" s="5" t="inlineStr">
@@ -21122,37 +21122,37 @@
     <row r="493">
       <c r="A493" s="3" t="inlineStr">
         <is>
-          <t>০২৬৩</t>
+          <t>০২৬০</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ নাছির উদ্দিন</t>
+          <t>শকির আহমেদ</t>
         </is>
       </c>
       <c r="C493" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৯০</t>
+          <t>১৫২৬১৪৮২১৭৪৬</t>
         </is>
       </c>
       <c r="D493" s="4" t="inlineStr">
         <is>
-          <t>ফয়েজ আহমেদ</t>
+          <t>মোবারক আহমেদ</t>
         </is>
       </c>
       <c r="E493" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F493" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:১০/০১/১৯৭০</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G493" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/১৯৭০</t>
+          <t>১০/০২/১৯৬৪</t>
         </is>
       </c>
       <c r="H493" s="5" t="inlineStr">
@@ -21164,37 +21164,37 @@
     <row r="494">
       <c r="A494" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৩</t>
+          <t>০৭১৮</t>
         </is>
       </c>
       <c r="B494" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সেলিম উদ্দিন</t>
+          <t>মুহাম্মদ ইসমাইল</t>
         </is>
       </c>
       <c r="C494" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৪৭৫</t>
+          <t>১৫২৬১৪৮২৬৯০১</t>
         </is>
       </c>
       <c r="D494" s="4" t="inlineStr">
         <is>
-          <t>আশরাফ আলী</t>
+          <t>নজীর আহমদ</t>
         </is>
       </c>
       <c r="E494" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>জাফুরা বেগম</t>
         </is>
       </c>
       <c r="F494" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G494" s="3" t="inlineStr">
         <is>
-          <t>১৫/০১/১৯৮৬</t>
+          <t>০১/১০/১৯৭৫</t>
         </is>
       </c>
       <c r="H494" s="5" t="inlineStr">
@@ -21206,37 +21206,37 @@
     <row r="495">
       <c r="A495" s="3" t="inlineStr">
         <is>
-          <t>০২৬০</t>
+          <t>০৭১৯</t>
         </is>
       </c>
       <c r="B495" s="4" t="inlineStr">
         <is>
-          <t>শকির আহমেদ</t>
+          <t>আজিজ আহমদ</t>
         </is>
       </c>
       <c r="C495" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৪৬</t>
+          <t>১৫২৬১৪৮২৬৯০৭</t>
         </is>
       </c>
       <c r="D495" s="4" t="inlineStr">
         <is>
-          <t>মোবারক আহমেদ</t>
+          <t>শেখ আহমদ</t>
         </is>
       </c>
       <c r="E495" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>শাহেদা বেগম</t>
         </is>
       </c>
       <c r="F495" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:১০/০২/১৯৬৪</t>
+          <t>ব্যবসায়ী</t>
         </is>
       </c>
       <c r="G495" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৬৪</t>
+          <t>১০/০৫/১৯৮২</t>
         </is>
       </c>
       <c r="H495" s="5" t="inlineStr">
@@ -21248,27 +21248,27 @@
     <row r="496">
       <c r="A496" s="3" t="inlineStr">
         <is>
-          <t>০৭১৮</t>
+          <t>০২৬৩</t>
         </is>
       </c>
       <c r="B496" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ইসমাইল</t>
+          <t>মুহাম্মদ নাছির উদ্দিন</t>
         </is>
       </c>
       <c r="C496" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯০১</t>
+          <t>১৫২৬১৪৮২১৭৯০</t>
         </is>
       </c>
       <c r="D496" s="4" t="inlineStr">
         <is>
-          <t>নজীর আহমদ</t>
+          <t>ফয়েজ আহমেদ</t>
         </is>
       </c>
       <c r="E496" s="4" t="inlineStr">
         <is>
-          <t>জাফুরা বেগম</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F496" s="3" t="inlineStr">
@@ -21278,7 +21278,7 @@
       </c>
       <c r="G496" s="3" t="inlineStr">
         <is>
-          <t>০১/১০/১৯৭৫</t>
+          <t>১০/০১/১৯৭০</t>
         </is>
       </c>
       <c r="H496" s="5" t="inlineStr">
@@ -21290,37 +21290,37 @@
     <row r="497">
       <c r="A497" s="3" t="inlineStr">
         <is>
-          <t>০২৫৯</t>
+          <t>০২৬৮</t>
         </is>
       </c>
       <c r="B497" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মুহীউদ্দীন</t>
+          <t>মুহাম্মাদ জাফর আলম</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৩৭</t>
+          <t>১৫২৬১৪৮২১৭৯৫</t>
         </is>
       </c>
       <c r="D497" s="4" t="inlineStr">
         <is>
-          <t>শমসুল আলম</t>
+          <t>আমীর আহমদ</t>
         </is>
       </c>
       <c r="E497" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা খাতুন</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F497" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০৪/০৩/১৯৮৩</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G497" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৩/১৯৮৩</t>
+          <t>১০/০১/১৯৮৫</t>
         </is>
       </c>
       <c r="H497" s="5" t="inlineStr">
@@ -21332,37 +21332,37 @@
     <row r="498">
       <c r="A498" s="3" t="inlineStr">
         <is>
-          <t>০২৫৮</t>
+          <t>০২৬৯</t>
         </is>
       </c>
       <c r="B498" s="4" t="inlineStr">
         <is>
-          <t>নুরুল কবির</t>
+          <t>খলিলুর রহমান</t>
         </is>
       </c>
       <c r="C498" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৩৬</t>
+          <t>১৫২৬১৪৮২১৭৯৬</t>
         </is>
       </c>
       <c r="D498" s="4" t="inlineStr">
         <is>
-          <t>লাল মিয়া</t>
+          <t>আতর আলী</t>
         </is>
       </c>
       <c r="E498" s="4" t="inlineStr">
         <is>
-          <t>জামিলা খাতুন</t>
+          <t>নচিমা বেগম</t>
         </is>
       </c>
       <c r="F498" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:১২/০৩/১৯৫৩</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G498" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/১৯৫৩</t>
+          <t>০৫/০৩/১৯৬৮</t>
         </is>
       </c>
       <c r="H498" s="5" t="inlineStr">
@@ -21374,79 +21374,79 @@
     <row r="499">
       <c r="A499" s="3" t="inlineStr">
         <is>
-          <t>০২৪৮</t>
+          <t>০২৭০</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
         <is>
-          <t>নুর মুহাম্মদ</t>
+          <t>নুরুল আলম</t>
         </is>
       </c>
       <c r="C499" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭২১</t>
+          <t>১৫২৬১৪৮২১৭৯৭</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>নাজিম উদ্দিন</t>
+          <t>শফিকুর রহমান</t>
         </is>
       </c>
       <c r="E499" s="4" t="inlineStr">
         <is>
-          <t>নুর নাহর বেগম</t>
+          <t>মুনিরা বেগম</t>
         </is>
       </c>
       <c r="F499" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G499" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৬৯</t>
+          <t>০২/০৩/১৯৬৮</t>
         </is>
       </c>
       <c r="H499" s="5" t="inlineStr">
         <is>
-          <t>কুমুদিয়া পাড়া, চুনতী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কুমুদিয়া পাড়া, চুনতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="3" t="inlineStr">
         <is>
-          <t>০২৩৯</t>
+          <t>০২৪২</t>
         </is>
       </c>
       <c r="B500" s="4" t="inlineStr">
         <is>
-          <t>আবুল হোসেন</t>
+          <t>লোকমান হাকিম</t>
         </is>
       </c>
       <c r="C500" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭০৮</t>
+          <t>১৫২৬১৪৮২১৭১১</t>
         </is>
       </c>
       <c r="D500" s="4" t="inlineStr">
         <is>
-          <t>মতিন মিয়া তালুকদার</t>
+          <t>হায়দর আলী</t>
         </is>
       </c>
       <c r="E500" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F500" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G500" s="3" t="inlineStr">
         <is>
-          <t>০২/০৪/১৯৮৩</t>
+          <t>০১/০৩/১৯৮৯</t>
         </is>
       </c>
       <c r="H500" s="5" t="inlineStr">
@@ -21458,37 +21458,37 @@
     <row r="501">
       <c r="A501" s="3" t="inlineStr">
         <is>
-          <t>০২৪৫</t>
+          <t>০২৩৯</t>
         </is>
       </c>
       <c r="B501" s="4" t="inlineStr">
         <is>
-          <t>মীর আহমেদ</t>
+          <t>আবুল হোসেন</t>
         </is>
       </c>
       <c r="C501" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭১৮</t>
+          <t>১৫২৬১৪৮২১৭০৮</t>
         </is>
       </c>
       <c r="D501" s="4" t="inlineStr">
         <is>
-          <t>আবদুল আজিজ</t>
+          <t>মতিন মিয়া তালুকদার</t>
         </is>
       </c>
       <c r="E501" s="4" t="inlineStr">
         <is>
-          <t>আবেদা খাতুন</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F501" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G501" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৮৪</t>
+          <t>০২/০৪/১৯৮৩</t>
         </is>
       </c>
       <c r="H501" s="5" t="inlineStr">
@@ -21500,37 +21500,37 @@
     <row r="502">
       <c r="A502" s="3" t="inlineStr">
         <is>
-          <t>০২৪৪</t>
+          <t>০২৪৮</t>
         </is>
       </c>
       <c r="B502" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ফওজুল আজিম</t>
+          <t>নুর মুহাম্মদ</t>
         </is>
       </c>
       <c r="C502" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭১৭</t>
+          <t>১৫২৬১৪৮২১৭২১</t>
         </is>
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t>হায়দর আলী</t>
+          <t>নাজিম উদ্দিন</t>
         </is>
       </c>
       <c r="E502" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>নুর নাহর বেগম</t>
         </is>
       </c>
       <c r="F502" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G502" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৭০</t>
+          <t>১০/০২/১৯৬৯</t>
         </is>
       </c>
       <c r="H502" s="5" t="inlineStr">
@@ -21542,17 +21542,17 @@
     <row r="503">
       <c r="A503" s="3" t="inlineStr">
         <is>
-          <t>০২৪২</t>
+          <t>০২৪৪</t>
         </is>
       </c>
       <c r="B503" s="4" t="inlineStr">
         <is>
-          <t>লোকমান হাকিম</t>
+          <t>মুহাম্মদ ফওজুল আজিম</t>
         </is>
       </c>
       <c r="C503" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭১১</t>
+          <t>১৫২৬১৪৮২১৭১৭</t>
         </is>
       </c>
       <c r="D503" s="4" t="inlineStr">
@@ -21567,12 +21567,12 @@
       </c>
       <c r="F503" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G503" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৮৯</t>
+          <t>০৫/০২/১৯৭০</t>
         </is>
       </c>
       <c r="H503" s="5" t="inlineStr">
@@ -21584,27 +21584,27 @@
     <row r="504">
       <c r="A504" s="3" t="inlineStr">
         <is>
-          <t>০৮৯৭</t>
+          <t>১০৮১</t>
         </is>
       </c>
       <c r="B504" s="4" t="inlineStr">
         <is>
-          <t>সাদেক হোসেন</t>
+          <t>মোঃ আবু সুফিয়ান</t>
         </is>
       </c>
       <c r="C504" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৩০৯</t>
+          <t>১৫২৬১৪০০০৪৯২</t>
         </is>
       </c>
       <c r="D504" s="4" t="inlineStr">
         <is>
-          <t>বদরুদ্দোজা</t>
+          <t>জাফর আহমেদ</t>
         </is>
       </c>
       <c r="E504" s="4" t="inlineStr">
         <is>
-          <t>রাবেয়া বেগম</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F504" s="3" t="inlineStr">
@@ -21614,175 +21614,175 @@
       </c>
       <c r="G504" s="3" t="inlineStr">
         <is>
-          <t>০২/০৩/১৯৯০</t>
+          <t>০৩/০৬/১৯৯১</t>
         </is>
       </c>
       <c r="H504" s="5" t="inlineStr">
         <is>
-          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="3" t="inlineStr">
         <is>
-          <t>০৮৮৫</t>
+          <t>১১৯৯</t>
         </is>
       </c>
       <c r="B505" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবু তাহের</t>
+          <t>রকিবুল মোস্তাফা</t>
         </is>
       </c>
       <c r="C505" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৬৪</t>
+          <t>১৫২৬১৪০০০৬৯৭</t>
         </is>
       </c>
       <c r="D505" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খালেক</t>
+          <t>রফিক আহমেদ</t>
         </is>
       </c>
       <c r="E505" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>ছালেহা বেগম</t>
         </is>
       </c>
       <c r="F505" s="3" t="inlineStr">
         <is>
-          <t>মিস্ট্রি</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G505" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৭/১৯৮৯</t>
+          <t>১০/০২/১৯৯৯</t>
         </is>
       </c>
       <c r="H505" s="5" t="inlineStr">
         <is>
-          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬৩৩, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="3" t="inlineStr">
         <is>
-          <t>০৮৭৭</t>
+          <t>১১৪১</t>
         </is>
       </c>
       <c r="B506" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ কাশেম</t>
+          <t>নুরুল আমিন</t>
         </is>
       </c>
       <c r="C506" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৩৪</t>
+          <t>১৫২৬১৪০০০৫৯৩</t>
         </is>
       </c>
       <c r="D506" s="4" t="inlineStr">
         <is>
-          <t>ফেরদৌস</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E506" s="4" t="inlineStr">
         <is>
-          <t>জাহানারা বেগম</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F506" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G506" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৭৭</t>
+          <t>১০/০৫/১৯৯৩</t>
         </is>
       </c>
       <c r="H506" s="5" t="inlineStr">
         <is>
-          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="3" t="inlineStr">
         <is>
-          <t>০৮৭৩</t>
+          <t>১১৯৩</t>
         </is>
       </c>
       <c r="B507" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মোজাফফর</t>
+          <t>আজমিনুল করিম</t>
         </is>
       </c>
       <c r="C507" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২১৯</t>
+          <t>১৫২৬১৪০০০৬৮৩</t>
         </is>
       </c>
       <c r="D507" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ শহীদ উল্লাহ</t>
+          <t>মোঃ মনছুর আলম</t>
         </is>
       </c>
       <c r="E507" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা খাতুন</t>
+          <t>শাহানাজ পারভীন</t>
         </is>
       </c>
       <c r="F507" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G507" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৯০</t>
+          <t>২২/০৩/১৯৯৮</t>
         </is>
       </c>
       <c r="H507" s="5" t="inlineStr">
         <is>
-          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৮৮, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="3" t="inlineStr">
         <is>
-          <t>০৮৭০</t>
+          <t>০৮৬৯</t>
         </is>
       </c>
       <c r="B508" s="4" t="inlineStr">
         <is>
-          <t>মোঃ কবেল</t>
+          <t>মোঃ রহিম</t>
         </is>
       </c>
       <c r="C508" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২১৩</t>
+          <t>১৫২৬১৪০০০২১২</t>
         </is>
       </c>
       <c r="D508" s="4" t="inlineStr">
         <is>
-          <t>আখতার মিয়া</t>
+          <t>নবী হোসেন</t>
         </is>
       </c>
       <c r="E508" s="4" t="inlineStr">
         <is>
-          <t>নূর জাহান বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F508" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G508" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৯১</t>
+          <t>১২/১১/১৯৯০</t>
         </is>
       </c>
       <c r="H508" s="5" t="inlineStr">
@@ -21794,37 +21794,37 @@
     <row r="509">
       <c r="A509" s="3" t="inlineStr">
         <is>
-          <t>১১৩০</t>
+          <t>০৮৭০</t>
         </is>
       </c>
       <c r="B509" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ বেলাল</t>
+          <t>মোঃ কবেল</t>
         </is>
       </c>
       <c r="C509" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৬৭</t>
+          <t>১৫২৬১৪০০০২১৩</t>
         </is>
       </c>
       <c r="D509" s="4" t="inlineStr">
         <is>
-          <t>নুর আহমেদ</t>
+          <t>আখতার মিয়া</t>
         </is>
       </c>
       <c r="E509" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>নূর জাহান বেগম</t>
         </is>
       </c>
       <c r="F509" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G509" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৯০</t>
+          <t>০৫/০২/১৯৯১</t>
         </is>
       </c>
       <c r="H509" s="5" t="inlineStr">
@@ -21836,37 +21836,37 @@
     <row r="510">
       <c r="A510" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৯</t>
+          <t>০৮৭২</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
         <is>
-          <t>মোঃ রহিম</t>
+          <t>মোঃ মঈন উদ্দিন</t>
         </is>
       </c>
       <c r="C510" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২১২</t>
+          <t>১৫২৬১৪০০০২১৮</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>নবী হোসেন</t>
+          <t>শামসুল আলম</t>
         </is>
       </c>
       <c r="E510" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>আয়েশা খাতুন</t>
         </is>
       </c>
       <c r="F510" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G510" s="3" t="inlineStr">
         <is>
-          <t>১২/১১/১৯৯০</t>
+          <t>০২/০১/১৯৯০</t>
         </is>
       </c>
       <c r="H510" s="5" t="inlineStr">
@@ -21878,121 +21878,121 @@
     <row r="511">
       <c r="A511" s="3" t="inlineStr">
         <is>
-          <t>১১৯৯</t>
+          <t>০৮৭৩</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
         <is>
-          <t>রকিবুল মোস্তাফা</t>
+          <t>মোঃ মোজাফফর</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৬৯৭</t>
+          <t>১৫২৬১৪০০০২১৯</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>রফিক আহমেদ</t>
+          <t>মুহাম্মদ শহীদ উল্লাহ</t>
         </is>
       </c>
       <c r="E511" s="4" t="inlineStr">
         <is>
-          <t>ছালেহা বেগম</t>
+          <t>আয়েশা খাতুন</t>
         </is>
       </c>
       <c r="F511" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G511" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৯৯</t>
+          <t>১০/০৮/১৯৯০</t>
         </is>
       </c>
       <c r="H511" s="5" t="inlineStr">
         <is>
-          <t>৬৩৩, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="3" t="inlineStr">
         <is>
-          <t>১১৪১</t>
+          <t>০৮৭৭</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আমিন</t>
+          <t>মুহাম্মদ কাশেম</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৯৩</t>
+          <t>১৫২৬১৪০০০২৩৪</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>ফেরদৌস</t>
         </is>
       </c>
       <c r="E512" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>জাহানারা বেগম</t>
         </is>
       </c>
       <c r="F512" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G512" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৯৩</t>
+          <t>০১/০৫/১৯৭৭</t>
         </is>
       </c>
       <c r="H512" s="5" t="inlineStr">
         <is>
-          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৮</t>
+          <t>০৮৮৫</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রহিম</t>
+          <t>মোহাম্মদ আবু তাহের</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২১০</t>
+          <t>১৫২৬১৪০০০২৬৪</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>আশরফ আলী</t>
+          <t>আবদুল খালেক</t>
         </is>
       </c>
       <c r="E513" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F513" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ট্রি</t>
         </is>
       </c>
       <c r="G513" s="3" t="inlineStr">
         <is>
-          <t>০১/১১/১৯৯০</t>
+          <t>০৩/০৭/১৯৮৯</t>
         </is>
       </c>
       <c r="H513" s="5" t="inlineStr">
@@ -22004,79 +22004,79 @@
     <row r="514">
       <c r="A514" s="3" t="inlineStr">
         <is>
-          <t>০৮৭২</t>
+          <t>০৮৯৭</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মঈন উদ্দিন</t>
+          <t>সাদেক হোসেন</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২১৮</t>
+          <t>১৫২৬১৪০০০৩০৯</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>শামসুল আলম</t>
+          <t>বদরুদ্দোজা</t>
         </is>
       </c>
       <c r="E514" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা খাতুন</t>
+          <t>রাবেয়া বেগম</t>
         </is>
       </c>
       <c r="F514" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G514" s="3" t="inlineStr">
         <is>
-          <t>০২/০১/১৯৯০</t>
+          <t>০২/০৩/১৯৯০</t>
         </is>
       </c>
       <c r="H514" s="5" t="inlineStr">
         <is>
-          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="3" t="inlineStr">
         <is>
-          <t>০৯২৩</t>
+          <t>১১৩০</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রাসেল</t>
+          <t>মুহাম্মদ বেলাল</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৫৫</t>
+          <t>১৫২৬১৪০০০৫৬৭</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>ছালেহ আহমেদ</t>
+          <t>নুর আহমেদ</t>
         </is>
       </c>
       <c r="E515" s="4" t="inlineStr">
         <is>
-          <t>মুনিরা বেগম</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F515" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G515" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/১৯৯২</t>
+          <t>০১/০৬/১৯৯০</t>
         </is>
       </c>
       <c r="H515" s="5" t="inlineStr">
@@ -22088,27 +22088,27 @@
     <row r="516">
       <c r="A516" s="3" t="inlineStr">
         <is>
-          <t>০৯৫১</t>
+          <t>০৯২৩</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
         <is>
-          <t>মাহফুজুর রহমান</t>
+          <t>মোহাম্মদ রাসেল</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৫৯</t>
+          <t>১৫২৬১৪০০০২৫৫</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইলিয়াছ</t>
+          <t>ছালেহ আহমেদ</t>
         </is>
       </c>
       <c r="E516" s="4" t="inlineStr">
         <is>
-          <t>চেমন আরা বেগম</t>
+          <t>মুনিরা বেগম</t>
         </is>
       </c>
       <c r="F516" s="3" t="inlineStr">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="G516" s="3" t="inlineStr">
         <is>
-          <t>১০/১২/১৯৯৩</t>
+          <t>০১/০৮/১৯৯২</t>
         </is>
       </c>
       <c r="H516" s="5" t="inlineStr">
@@ -22130,37 +22130,37 @@
     <row r="517">
       <c r="A517" s="3" t="inlineStr">
         <is>
-          <t>০৯৩৩</t>
+          <t>০৯৩০</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
         <is>
-          <t>কায়সার আহমেদ</t>
+          <t>মোঃ সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="C517" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৩১০</t>
+          <t>১৫২৬১৪০০০২৮৫</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মতলব</t>
+          <t>সালেহ আহমেদ</t>
         </is>
       </c>
       <c r="E517" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>মসুদা খাতুন</t>
         </is>
       </c>
       <c r="F517" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G517" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৯/১৯৯২</t>
+          <t>২২/১২/১৯৯২</t>
         </is>
       </c>
       <c r="H517" s="5" t="inlineStr">
@@ -22214,37 +22214,37 @@
     <row r="519">
       <c r="A519" s="3" t="inlineStr">
         <is>
-          <t>০৯৬৬</t>
+          <t>০৯৫১</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
         <is>
-          <t>মোঃ বেলাল উদ্দীন</t>
+          <t>মাহফুজুর রহমান</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৪৬</t>
+          <t>১৫২৬১৪০০০২৫৯</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>শামসুল আলম</t>
+          <t>মোঃ ইলিয়াছ</t>
         </is>
       </c>
       <c r="E519" s="4" t="inlineStr">
         <is>
-          <t>মোছাম্মৎ আয়েশা</t>
+          <t>চেমন আরা বেগম</t>
         </is>
       </c>
       <c r="F519" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G519" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৫/১৯৯৪</t>
+          <t>১০/১২/১৯৯৩</t>
         </is>
       </c>
       <c r="H519" s="5" t="inlineStr">
@@ -22256,27 +22256,27 @@
     <row r="520">
       <c r="A520" s="3" t="inlineStr">
         <is>
-          <t>১১২৯</t>
+          <t>০৯৬৬</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবু ছালেহ</t>
+          <t>মোঃ বেলাল উদ্দীন</t>
         </is>
       </c>
       <c r="C520" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৬৬</t>
+          <t>১৫২৬১৪০০০২৪৬</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খালেক</t>
+          <t>শামসুল আলম</t>
         </is>
       </c>
       <c r="E520" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>মোছাম্মৎ আয়েশা</t>
         </is>
       </c>
       <c r="F520" s="3" t="inlineStr">
@@ -22286,7 +22286,7 @@
       </c>
       <c r="G520" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৯৫</t>
+          <t>০৫/০৫/১৯৯৪</t>
         </is>
       </c>
       <c r="H520" s="5" t="inlineStr">
@@ -22298,37 +22298,37 @@
     <row r="521">
       <c r="A521" s="3" t="inlineStr">
         <is>
-          <t>১১২৬</t>
+          <t>১১২৯</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ রিদুওয়ান</t>
+          <t>মোঃ আবু ছালেহ</t>
         </is>
       </c>
       <c r="C521" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৬৩</t>
+          <t>১৫২৬১৪০০০৫৬৬</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>শেখ আহমেদ</t>
+          <t>আবদুল খালেক</t>
         </is>
       </c>
       <c r="E521" s="4" t="inlineStr">
         <is>
-          <t>শাহেদা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F521" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G521" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/১৯৯৭</t>
+          <t>০১/০৫/১৯৯৫</t>
         </is>
       </c>
       <c r="H521" s="5" t="inlineStr">
@@ -22340,37 +22340,37 @@
     <row r="522">
       <c r="A522" s="3" t="inlineStr">
         <is>
-          <t>১১১৯</t>
+          <t>০৮৬৮</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নেজাম উদ্দিন</t>
+          <t>মোহাম্মদ রহিম</t>
         </is>
       </c>
       <c r="C522" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৫৪</t>
+          <t>১৫২৬১৪০০০২১০</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>বদরুল আলম</t>
+          <t>আশরফ আলী</t>
         </is>
       </c>
       <c r="E522" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F522" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G522" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/১৯৯৭</t>
+          <t>০১/১১/১৯৯০</t>
         </is>
       </c>
       <c r="H522" s="5" t="inlineStr">
@@ -22382,79 +22382,79 @@
     <row r="523">
       <c r="A523" s="3" t="inlineStr">
         <is>
-          <t>১১৬৬</t>
+          <t>১০৭০</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ করিম</t>
+          <t>মোঃ জুবাইর</t>
         </is>
       </c>
       <c r="C523" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৬৪৪</t>
+          <t>১৫২৬১৪০০০৪৬৪</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>নবী হোসাইন</t>
+          <t>নুরুল আমিন</t>
         </is>
       </c>
       <c r="E523" s="4" t="inlineStr">
         <is>
-          <t>আবোয়ারা বেগম</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="F523" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G523" s="3" t="inlineStr">
         <is>
-          <t>২০/০১/১৯৯৯</t>
+          <t>০৫/০১/১৯৯৫</t>
         </is>
       </c>
       <c r="H523" s="5" t="inlineStr">
         <is>
-          <t>□, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="3" t="inlineStr">
         <is>
-          <t>১১১৭</t>
+          <t>১১১৯</t>
         </is>
       </c>
       <c r="B524" s="4" t="inlineStr">
         <is>
-          <t>বশির আহমেদ</t>
+          <t>মোহাম্মদ নেজাম উদ্দিন</t>
         </is>
       </c>
       <c r="C524" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৫২</t>
+          <t>১৫২৬১৪০০০৫৫৪</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>হেদায়েত আলী</t>
+          <t>বদরুল আলম</t>
         </is>
       </c>
       <c r="E524" s="4" t="inlineStr">
         <is>
-          <t>রাহেলা বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="F524" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G524" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৭/১৯৯৩</t>
+          <t>০১/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H524" s="5" t="inlineStr">
@@ -22466,37 +22466,37 @@
     <row r="525">
       <c r="A525" s="3" t="inlineStr">
         <is>
-          <t>১১৬৯</t>
+          <t>১১৬৬</t>
         </is>
       </c>
       <c r="B525" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল জব্বার</t>
+          <t>মোহাম্মদ করিম</t>
         </is>
       </c>
       <c r="C525" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৬৪৭</t>
+          <t>১৫২৬১৪০০০৬৪৪</t>
         </is>
       </c>
       <c r="D525" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জলিল</t>
+          <t>নবী হোসাইন</t>
         </is>
       </c>
       <c r="E525" s="4" t="inlineStr">
         <is>
-          <t>জোছনা আক্তার</t>
+          <t>আবোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F525" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G525" s="3" t="inlineStr">
         <is>
-          <t>০২/০৬/১৯৯৯</t>
+          <t>২০/০১/১৯৯৯</t>
         </is>
       </c>
       <c r="H525" s="5" t="inlineStr">
@@ -22508,37 +22508,37 @@
     <row r="526">
       <c r="A526" s="3" t="inlineStr">
         <is>
-          <t>১০৮১</t>
+          <t>১১১৭</t>
         </is>
       </c>
       <c r="B526" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবু সুফিয়ান</t>
+          <t>বশির আহমেদ</t>
         </is>
       </c>
       <c r="C526" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৪৯২</t>
+          <t>১৫২৬১৪০০০৫৫২</t>
         </is>
       </c>
       <c r="D526" s="4" t="inlineStr">
         <is>
-          <t>জাফর আহমেদ</t>
+          <t>হেদায়েত আলী</t>
         </is>
       </c>
       <c r="E526" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>রাহেলা বেগম</t>
         </is>
       </c>
       <c r="F526" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G526" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৬/১৯৯১</t>
+          <t>১৭/০৭/১৯৯৩</t>
         </is>
       </c>
       <c r="H526" s="5" t="inlineStr">
@@ -22550,111 +22550,111 @@
     <row r="527">
       <c r="A527" s="3" t="inlineStr">
         <is>
-          <t>১০৭০</t>
+          <t>১১৬৯</t>
         </is>
       </c>
       <c r="B527" s="4" t="inlineStr">
         <is>
-          <t>মোঃ জুবাইর</t>
+          <t>আব্দুল জব্বার</t>
         </is>
       </c>
       <c r="C527" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৪৬৪</t>
+          <t>১৫২৬১৪০০০৬৪৭</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আমিন</t>
+          <t>আবদুল জলিল</t>
         </is>
       </c>
       <c r="E527" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>জোছনা আক্তার</t>
         </is>
       </c>
       <c r="F527" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:০৫/০১/১৯৯৫</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G527" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৯৫</t>
+          <t>০২/০৬/১৯৯৯</t>
         </is>
       </c>
       <c r="H527" s="5" t="inlineStr">
         <is>
-          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>□, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="3" t="inlineStr">
         <is>
-          <t>১১৯৩</t>
+          <t>০৯৩৩</t>
         </is>
       </c>
       <c r="B528" s="4" t="inlineStr">
         <is>
-          <t>আজমিনুল করিম</t>
+          <t>কায়সার আহমেদ</t>
         </is>
       </c>
       <c r="C528" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৬৮৩</t>
+          <t>১৫২৬১৪০০০৩১০</t>
         </is>
       </c>
       <c r="D528" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মনছুর আলম</t>
+          <t>আবদুল মতলব</t>
         </is>
       </c>
       <c r="E528" s="4" t="inlineStr">
         <is>
-          <t>শাহানাজ পারভীন</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="F528" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G528" s="3" t="inlineStr">
         <is>
-          <t>২২/০৩/১৯৯৮</t>
+          <t>০৭/০৯/১৯৯২</t>
         </is>
       </c>
       <c r="H528" s="5" t="inlineStr">
         <is>
-          <t>৩৮৮, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="3" t="inlineStr">
         <is>
-          <t>০৯৩০</t>
+          <t>১১২৬</t>
         </is>
       </c>
       <c r="B529" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সিরাজুল ইসলাম</t>
+          <t>মুহাম্মদ রিদুওয়ান</t>
         </is>
       </c>
       <c r="C529" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৮৫</t>
+          <t>১৫২৬১৪০০০৫৬৩</t>
         </is>
       </c>
       <c r="D529" s="4" t="inlineStr">
         <is>
-          <t>সালেহ আহমেদ</t>
+          <t>শেখ আহমেদ</t>
         </is>
       </c>
       <c r="E529" s="4" t="inlineStr">
         <is>
-          <t>মসুদা খাতুন</t>
+          <t>শাহেদা বেগম</t>
         </is>
       </c>
       <c r="F529" s="3" t="inlineStr">
@@ -22664,7 +22664,7 @@
       </c>
       <c r="G529" s="3" t="inlineStr">
         <is>
-          <t>২২/১২/১৯৯২</t>
+          <t>০১/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H529" s="5" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="F589" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:০১/০২/১৯৭২</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G589" s="3" t="inlineStr">
@@ -25599,7 +25599,7 @@
       </c>
       <c r="F599" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:০১/০১/১৯৮৮</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G599" s="3" t="inlineStr">
@@ -25641,7 +25641,7 @@
       </c>
       <c r="F600" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:২০/০২/১৯৭৮</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G600" s="3" t="inlineStr">
@@ -25683,7 +25683,7 @@
       </c>
       <c r="F601" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:১৫/০১/১৯৮১</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G601" s="3" t="inlineStr">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="F610" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:২২/০৭/১৯৮৬</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G610" s="3" t="inlineStr">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="F612" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:০১/০৩/১৯৬৬</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G612" s="3" t="inlineStr">
@@ -26271,7 +26271,7 @@
       </c>
       <c r="F615" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:১২/০৩/১৯৬৭</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G615" s="3" t="inlineStr">
@@ -26313,7 +26313,7 @@
       </c>
       <c r="F616" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:০২/০২/১৯৭২</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G616" s="3" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="F617" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:০৪/০২/১৯৮৮</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G617" s="3" t="inlineStr">
@@ -27783,7 +27783,7 @@
       </c>
       <c r="F651" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:১০/১২/১৯৯১</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G651" s="3" t="inlineStr">
@@ -31773,7 +31773,7 @@
       </c>
       <c r="F746" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০৯/০৩/২০০৭</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G746" s="3" t="inlineStr">
@@ -33453,7 +33453,7 @@
       </c>
       <c r="F786" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৮/০৯/২০০৩</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G786" s="3" t="inlineStr">
@@ -36141,7 +36141,7 @@
       </c>
       <c r="F850" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর/জন্ম তারিখ:০৫/০৩/১৯৩৮</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G850" s="3" t="inlineStr">
@@ -37863,7 +37863,7 @@
       </c>
       <c r="F891" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ:১৭/০৯/১৯৯৩</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G891" s="3" t="inlineStr">
@@ -39207,7 +39207,7 @@
       </c>
       <c r="F923" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৫/০৪/২০০১</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G923" s="3" t="inlineStr">
@@ -39963,7 +39963,7 @@
       </c>
       <c r="F941" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০১/১৯৯১</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G941" s="3" t="inlineStr">
@@ -40593,7 +40593,7 @@
       </c>
       <c r="F956" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০৬/০৫/১৯৯৮</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G956" s="3" t="inlineStr">
@@ -40803,7 +40803,7 @@
       </c>
       <c r="F961" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৮/০৯/১৯৮৯</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G961" s="3" t="inlineStr">
@@ -42357,7 +42357,7 @@
       </c>
       <c r="F998" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০৭/১৯৬৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G998" s="3" t="inlineStr">
@@ -50169,7 +50169,7 @@
       </c>
       <c r="F1184" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৭/০১/১৯৯৮</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1184" s="3" t="inlineStr">
@@ -51933,7 +51933,7 @@
       </c>
       <c r="F1226" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০১/১৯৯৮</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1226" s="3" t="inlineStr">
@@ -56217,7 +56217,7 @@
       </c>
       <c r="F1328" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২০/০২/১৯৯৭</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1328" s="3" t="inlineStr">
@@ -59577,7 +59577,7 @@
       </c>
       <c r="F1408" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৩/০৯/১৯৯৮</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1408" s="3" t="inlineStr">
@@ -59619,7 +59619,7 @@
       </c>
       <c r="F1409" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০৩/০৮/১৯৯৮</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1409" s="3" t="inlineStr">
@@ -68397,7 +68397,7 @@
       </c>
       <c r="F1618" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী/জন্ম তারিখ:০৩/০১/১৯৯১</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G1618" s="3" t="inlineStr">
@@ -68523,7 +68523,7 @@
       </c>
       <c r="F1621" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৫/০৫/২০০৩</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1621" s="3" t="inlineStr">
@@ -69783,7 +69783,7 @@
       </c>
       <c r="F1651" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:০১/০১/১৯৯৬</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G1651" s="3" t="inlineStr">
@@ -69825,7 +69825,7 @@
       </c>
       <c r="F1652" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১২/০৯/১৯৯৮</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1652" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHUNATI/152614/152614_com_1678_male_without_photo_95_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152614/152614_com_1678_male_without_photo_95_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="47" customWidth="1" min="4" max="4"/>
     <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="47.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৩/০২/১৯৯৭</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৩/০২/১৯৯৭</t>
         </is>
       </c>
       <c r="G75" s="3" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ত্রী/জন্ম তারিখ:০১/১২/১৯৯৬</t>
         </is>
       </c>
       <c r="G121" s="3" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:১৫/১২/১৯৭৭</t>
         </is>
       </c>
       <c r="G161" s="3" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১০/০২/১৯৯৮</t>
         </is>
       </c>
       <c r="G169" s="3" t="inlineStr">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ত্রী/জন্ম তারিখ:১৩/১১/১৯৯৮</t>
         </is>
       </c>
       <c r="G172" s="3" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০৬/১৯৯৬</t>
         </is>
       </c>
       <c r="G175" s="3" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০১/১৯৯৮</t>
         </is>
       </c>
       <c r="G189" s="3" t="inlineStr">
@@ -15729,7 +15729,7 @@
       </c>
       <c r="F364" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০৫/০৩/২০০৩</t>
         </is>
       </c>
       <c r="G364" s="3" t="inlineStr">
@@ -20077,7 +20077,7 @@
       </c>
       <c r="B468" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রশিদ</t>
+          <t>মোঃ হারুন রশিদ</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr">
@@ -20139,7 +20139,7 @@
       </c>
       <c r="F469" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৭/০১/২০০৩</t>
         </is>
       </c>
       <c r="G469" s="3" t="inlineStr">
@@ -20450,27 +20450,27 @@
     <row r="477">
       <c r="A477" s="3" t="inlineStr">
         <is>
-          <t>০২৪৫</t>
+          <t>০২৪৬</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
         <is>
-          <t>মীর আহমেদ</t>
+          <t>বারেক</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭১৮</t>
+          <t>১৫২৬১৪৮২১৭১৯</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>আবদুল আজিজ</t>
+          <t>নুরুল কবির</t>
         </is>
       </c>
       <c r="E477" s="4" t="inlineStr">
         <is>
-          <t>আবেদা খাতুন</t>
+          <t>নুরুন নাহর</t>
         </is>
       </c>
       <c r="F477" s="3" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="G477" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৮৪</t>
+          <t>০১/০৩/১৯৮৫</t>
         </is>
       </c>
       <c r="H477" s="5" t="inlineStr">
@@ -20492,27 +20492,27 @@
     <row r="478">
       <c r="A478" s="3" t="inlineStr">
         <is>
-          <t>০২৪৬</t>
+          <t>০৭২৭</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>বারেক</t>
+          <t>ফরিদ আহমদ</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭১৯</t>
+          <t>১৫২৬১৪৮২৬৯৩৩</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>নুরুল কবির</t>
+          <t>ছৈয়দ হোসেন</t>
         </is>
       </c>
       <c r="E478" s="4" t="inlineStr">
         <is>
-          <t>নুরুন নাহর</t>
+          <t>নুর জাহান</t>
         </is>
       </c>
       <c r="F478" s="3" t="inlineStr">
@@ -20522,7 +20522,7 @@
       </c>
       <c r="G478" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৮৫</t>
+          <t>০৮/০৩/১৯৮৮</t>
         </is>
       </c>
       <c r="H478" s="5" t="inlineStr">
@@ -20534,37 +20534,37 @@
     <row r="479">
       <c r="A479" s="3" t="inlineStr">
         <is>
-          <t>০৭২৭</t>
+          <t>০৭২৪</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
         <is>
-          <t>ফরিদ আহমদ</t>
+          <t>জসিম উদ্দীন</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯৩৩</t>
+          <t>১৫২৬১৪৮২৬৯২৭</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>ছৈয়দ হোসেন</t>
+          <t>তজু মিয়া</t>
         </is>
       </c>
       <c r="E479" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান</t>
+          <t>আনজুমান আরা বেগম</t>
         </is>
       </c>
       <c r="F479" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G479" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৩/১৯৮৮</t>
+          <t>০৩/১২/১৯৮৮</t>
         </is>
       </c>
       <c r="H479" s="5" t="inlineStr">
@@ -20576,37 +20576,37 @@
     <row r="480">
       <c r="A480" s="3" t="inlineStr">
         <is>
-          <t>০৭২৪</t>
+          <t>০২৫১</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
         <is>
-          <t>জসিম উদ্দীন</t>
+          <t>মোহাম্মদ নুরুচ্ছফা</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯২৭</t>
+          <t>১৫২৬১৪৮২১৭২৭</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>তজু মিয়া</t>
+          <t>মোহাম্মদ হাসন</t>
         </is>
       </c>
       <c r="E480" s="4" t="inlineStr">
         <is>
-          <t>আনজুমান আরা বেগম</t>
+          <t>মায়মুনা বেগম</t>
         </is>
       </c>
       <c r="F480" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক/জন্ম তারিখ:১০/০৩/১৯৮৪</t>
         </is>
       </c>
       <c r="G480" s="3" t="inlineStr">
         <is>
-          <t>০৩/১২/১৯৮৮</t>
+          <t>১০/০৩/১৯৮৪</t>
         </is>
       </c>
       <c r="H480" s="5" t="inlineStr">
@@ -20618,27 +20618,27 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>০২৫১</t>
+          <t>০৭২২</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নুরুচ্ছফা</t>
+          <t>জসিম উদ্দীন</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭২৭</t>
+          <t>১৫২৬১৪৮২৬৯২৫</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হাসন</t>
+          <t>মোজাহের মিয়া</t>
         </is>
       </c>
       <c r="E481" s="4" t="inlineStr">
         <is>
-          <t>মায়মুনা বেগম</t>
+          <t>আরেছা বেগম</t>
         </is>
       </c>
       <c r="F481" s="3" t="inlineStr">
@@ -20648,7 +20648,7 @@
       </c>
       <c r="G481" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৮৪</t>
+          <t>১০/০২/১৯৮৩</t>
         </is>
       </c>
       <c r="H481" s="5" t="inlineStr">
@@ -20660,27 +20660,27 @@
     <row r="482">
       <c r="A482" s="3" t="inlineStr">
         <is>
-          <t>০৭২২</t>
+          <t>০৭২১</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
         <is>
-          <t>জসিম উদ্দীন</t>
+          <t>শাহ জাহান</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯২৫</t>
+          <t>১৫২৬১৪৮২৬৯১৪</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>মোজাহের মিয়া</t>
+          <t>খোরশেদ আলম</t>
         </is>
       </c>
       <c r="E482" s="4" t="inlineStr">
         <is>
-          <t>আরেছা বেগম</t>
+          <t>আনোয়ারা</t>
         </is>
       </c>
       <c r="F482" s="3" t="inlineStr">
@@ -20690,7 +20690,7 @@
       </c>
       <c r="G482" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৮৩</t>
+          <t>১০/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H482" s="5" t="inlineStr">
@@ -20702,37 +20702,37 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>০৭২১</t>
+          <t>০৭২০</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>শাহ জাহান</t>
+          <t>মোহাম্মদ ইব্রাহীম</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯১৪</t>
+          <t>১৫২৬১৪৮২৬৯১২</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>খোরশেদ আলম</t>
+          <t>আমীর আহমদ</t>
         </is>
       </c>
       <c r="E483" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F483" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G483" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৬৭</t>
+          <t>০৫/০৩/১৯৮৭</t>
         </is>
       </c>
       <c r="H483" s="5" t="inlineStr">
@@ -20744,37 +20744,37 @@
     <row r="484">
       <c r="A484" s="3" t="inlineStr">
         <is>
-          <t>০৭২০</t>
+          <t>০২৫৫</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইব্রাহীম</t>
+          <t>মুহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯১২</t>
+          <t>১৫২৬১৪৮২১৭৩৩</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>আমীর আহমদ</t>
+          <t>অভিউর রহমান</t>
         </is>
       </c>
       <c r="E484" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F484" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক/জন্ম তারিখ:১০/০২/১৯৮৩</t>
         </is>
       </c>
       <c r="G484" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৩/১৯৮৭</t>
+          <t>১০/০২/১৯৮৩</t>
         </is>
       </c>
       <c r="H484" s="5" t="inlineStr">
@@ -20786,37 +20786,37 @@
     <row r="485">
       <c r="A485" s="3" t="inlineStr">
         <is>
-          <t>০২৫৫</t>
+          <t>০৭২৯</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
         <is>
+          <t>ইফতেখারুল হোসেন রানা</t>
+        </is>
+      </c>
+      <c r="C485" s="3" t="inlineStr">
+        <is>
+          <t>১৫২৬১৪৮২৬৯৩৫</t>
+        </is>
+      </c>
+      <c r="D485" s="4" t="inlineStr">
+        <is>
           <t>মুহাম্মদ হোসেন</t>
         </is>
       </c>
-      <c r="C485" s="3" t="inlineStr">
-        <is>
-          <t>১৫২৬১৪৮২১৭৩৩</t>
-        </is>
-      </c>
-      <c r="D485" s="4" t="inlineStr">
-        <is>
-          <t>অভিউর রহমান</t>
-        </is>
-      </c>
       <c r="E485" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F485" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসায়ী</t>
         </is>
       </c>
       <c r="G485" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৮৩</t>
+          <t>০৩/০২/১৯৮৭</t>
         </is>
       </c>
       <c r="H485" s="5" t="inlineStr">
@@ -20828,37 +20828,37 @@
     <row r="486">
       <c r="A486" s="3" t="inlineStr">
         <is>
-          <t>০৭২৯</t>
+          <t>০২৫৭</t>
         </is>
       </c>
       <c r="B486" s="4" t="inlineStr">
         <is>
-          <t>ইফতেখারুল হোসেন রানা</t>
+          <t>মুহাম্মদ হাসন</t>
         </is>
       </c>
       <c r="C486" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯৩৫</t>
+          <t>১৫২৬১৪৮২১৭৩৫</t>
         </is>
       </c>
       <c r="D486" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ হোসেন</t>
+          <t>নজির আহমেদ</t>
         </is>
       </c>
       <c r="E486" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F486" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসায়ী</t>
+          <t>কৃষক/জন্ম তারিখ:০৮/০১/১৯৭৮</t>
         </is>
       </c>
       <c r="G486" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/১৯৮৭</t>
+          <t>০৮/০১/১৯৭৮</t>
         </is>
       </c>
       <c r="H486" s="5" t="inlineStr">
@@ -20870,27 +20870,27 @@
     <row r="487">
       <c r="A487" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৩</t>
+          <t>০২৭২</t>
         </is>
       </c>
       <c r="B487" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সেলিম উদ্দিন</t>
+          <t>নুরুল আবসার</t>
         </is>
       </c>
       <c r="C487" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৪৭৫</t>
+          <t>১৫২৬১৪৮২১৮০৪</t>
         </is>
       </c>
       <c r="D487" s="4" t="inlineStr">
         <is>
-          <t>আশরাফ আলী</t>
+          <t>আবু হেয়দ</t>
         </is>
       </c>
       <c r="E487" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>রওশন আখতার</t>
         </is>
       </c>
       <c r="F487" s="3" t="inlineStr">
@@ -20900,7 +20900,7 @@
       </c>
       <c r="G487" s="3" t="inlineStr">
         <is>
-          <t>১৫/০১/১৯৮৬</t>
+          <t>১০/০৩/১৯৮৯</t>
         </is>
       </c>
       <c r="H487" s="5" t="inlineStr">
@@ -20912,37 +20912,37 @@
     <row r="488">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>০২৭২</t>
+          <t>০২৭১</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আবসার</t>
+          <t>মুহাম্মাদ আবু</t>
         </is>
       </c>
       <c r="C488" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৮০৪</t>
+          <t>১৫২৬১৪৮২১৭৯৮</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>আবু হেয়দ</t>
+          <t>আমীর হোসেন</t>
         </is>
       </c>
       <c r="E488" s="4" t="inlineStr">
         <is>
-          <t>রওশন আখতার</t>
+          <t>দিলু আরা বেগম</t>
         </is>
       </c>
       <c r="F488" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G488" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৮৯</t>
+          <t>০৫/০১/১৯৭৪</t>
         </is>
       </c>
       <c r="H488" s="5" t="inlineStr">
@@ -20954,37 +20954,37 @@
     <row r="489">
       <c r="A489" s="3" t="inlineStr">
         <is>
-          <t>০২৫৭</t>
+          <t>০৭১৯</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ হাসন</t>
+          <t>আজিজ আহমদ</t>
         </is>
       </c>
       <c r="C489" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৩৫</t>
+          <t>১৫২৬১৪৮২৬৯০৭</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমেদ</t>
+          <t>শেখ আহমদ</t>
         </is>
       </c>
       <c r="E489" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>শাহেদা বেগম</t>
         </is>
       </c>
       <c r="F489" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসায়ী</t>
         </is>
       </c>
       <c r="G489" s="3" t="inlineStr">
         <is>
-          <t>০৮/০১/১৯৭৮</t>
+          <t>১০/০৫/১৯৮২</t>
         </is>
       </c>
       <c r="H489" s="5" t="inlineStr">
@@ -20996,27 +20996,27 @@
     <row r="490">
       <c r="A490" s="3" t="inlineStr">
         <is>
-          <t>০২৫৮</t>
+          <t>০২৭০</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
         <is>
-          <t>নুরুল কবির</t>
+          <t>নুরুল আলম</t>
         </is>
       </c>
       <c r="C490" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৩৬</t>
+          <t>১৫২৬১৪৮২১৭৯৭</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
         <is>
-          <t>লাল মিয়া</t>
+          <t>শফিকুর রহমান</t>
         </is>
       </c>
       <c r="E490" s="4" t="inlineStr">
         <is>
-          <t>জামিলা খাতুন</t>
+          <t>মুনিরা বেগম</t>
         </is>
       </c>
       <c r="F490" s="3" t="inlineStr">
@@ -21026,7 +21026,7 @@
       </c>
       <c r="G490" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/১৯৫৩</t>
+          <t>০২/০৩/১৯৬৮</t>
         </is>
       </c>
       <c r="H490" s="5" t="inlineStr">
@@ -21038,37 +21038,37 @@
     <row r="491">
       <c r="A491" s="3" t="inlineStr">
         <is>
-          <t>০২৫৯</t>
+          <t>০২৬৯</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মুহীউদ্দীন</t>
+          <t>খলিলুর রহমান</t>
         </is>
       </c>
       <c r="C491" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৩৭</t>
+          <t>১৫২৬১৪৮২১৭৯৬</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
         <is>
-          <t>শমসুল আলম</t>
+          <t>আতর আলী</t>
         </is>
       </c>
       <c r="E491" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা খাতুন</t>
+          <t>নচিমা বেগম</t>
         </is>
       </c>
       <c r="F491" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G491" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৩/১৯৮৩</t>
+          <t>০৫/০৩/১৯৬৮</t>
         </is>
       </c>
       <c r="H491" s="5" t="inlineStr">
@@ -21080,37 +21080,37 @@
     <row r="492">
       <c r="A492" s="3" t="inlineStr">
         <is>
-          <t>০২৭১</t>
+          <t>০২৬৮</t>
         </is>
       </c>
       <c r="B492" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মাদ আবু</t>
+          <t>মুহাম্মাদ জাফর আলম</t>
         </is>
       </c>
       <c r="C492" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৯৮</t>
+          <t>১৫২৬১৪৮২১৭৯৫</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>আমীর হোসেন</t>
+          <t>আমীর আহমদ</t>
         </is>
       </c>
       <c r="E492" s="4" t="inlineStr">
         <is>
-          <t>দিলু আরা বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F492" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G492" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৭৪</t>
+          <t>১০/০১/১৯৮৫</t>
         </is>
       </c>
       <c r="H492" s="5" t="inlineStr">
@@ -21122,37 +21122,37 @@
     <row r="493">
       <c r="A493" s="3" t="inlineStr">
         <is>
-          <t>০২৬০</t>
+          <t>০২৬৩</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
         <is>
-          <t>শকির আহমেদ</t>
+          <t>মুহাম্মদ নাছির উদ্দিন</t>
         </is>
       </c>
       <c r="C493" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৪৬</t>
+          <t>১৫২৬১৪৮২১৭৯০</t>
         </is>
       </c>
       <c r="D493" s="4" t="inlineStr">
         <is>
-          <t>মোবারক আহমেদ</t>
+          <t>ফয়েজ আহমেদ</t>
         </is>
       </c>
       <c r="E493" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F493" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:১০/০১/১৯৭০</t>
         </is>
       </c>
       <c r="G493" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৬৪</t>
+          <t>১০/০১/১৯৭০</t>
         </is>
       </c>
       <c r="H493" s="5" t="inlineStr">
@@ -21164,37 +21164,37 @@
     <row r="494">
       <c r="A494" s="3" t="inlineStr">
         <is>
-          <t>০৭১৮</t>
+          <t>০৫৪৩</t>
         </is>
       </c>
       <c r="B494" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ইসমাইল</t>
+          <t>মোঃ সেলিম উদ্দিন</t>
         </is>
       </c>
       <c r="C494" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯০১</t>
+          <t>১৫২৬১৪৮২৬৪৭৫</t>
         </is>
       </c>
       <c r="D494" s="4" t="inlineStr">
         <is>
-          <t>নজীর আহমদ</t>
+          <t>আশরাফ আলী</t>
         </is>
       </c>
       <c r="E494" s="4" t="inlineStr">
         <is>
-          <t>জাফুরা বেগম</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F494" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G494" s="3" t="inlineStr">
         <is>
-          <t>০১/১০/১৯৭৫</t>
+          <t>১৫/০১/১৯৮৬</t>
         </is>
       </c>
       <c r="H494" s="5" t="inlineStr">
@@ -21206,37 +21206,37 @@
     <row r="495">
       <c r="A495" s="3" t="inlineStr">
         <is>
-          <t>০৭১৯</t>
+          <t>০২৬০</t>
         </is>
       </c>
       <c r="B495" s="4" t="inlineStr">
         <is>
-          <t>আজিজ আহমদ</t>
+          <t>শকির আহমেদ</t>
         </is>
       </c>
       <c r="C495" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২৬৯০৭</t>
+          <t>১৫২৬১৪৮২১৭৪৬</t>
         </is>
       </c>
       <c r="D495" s="4" t="inlineStr">
         <is>
-          <t>শেখ আহমদ</t>
+          <t>মোবারক আহমেদ</t>
         </is>
       </c>
       <c r="E495" s="4" t="inlineStr">
         <is>
-          <t>শাহেদা বেগম</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F495" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসায়ী</t>
+          <t>কৃষক/জন্ম তারিখ:১০/০২/১৯৬৪</t>
         </is>
       </c>
       <c r="G495" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৮২</t>
+          <t>১০/০২/১৯৬৪</t>
         </is>
       </c>
       <c r="H495" s="5" t="inlineStr">
@@ -21248,27 +21248,27 @@
     <row r="496">
       <c r="A496" s="3" t="inlineStr">
         <is>
-          <t>০২৬৩</t>
+          <t>০৭১৮</t>
         </is>
       </c>
       <c r="B496" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ নাছির উদ্দিন</t>
+          <t>মুহাম্মদ ইসমাইল</t>
         </is>
       </c>
       <c r="C496" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৯০</t>
+          <t>১৫২৬১৪৮২৬৯০১</t>
         </is>
       </c>
       <c r="D496" s="4" t="inlineStr">
         <is>
-          <t>ফয়েজ আহমেদ</t>
+          <t>নজীর আহমদ</t>
         </is>
       </c>
       <c r="E496" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>জাফুরা বেগম</t>
         </is>
       </c>
       <c r="F496" s="3" t="inlineStr">
@@ -21278,7 +21278,7 @@
       </c>
       <c r="G496" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/১৯৭০</t>
+          <t>০১/১০/১৯৭৫</t>
         </is>
       </c>
       <c r="H496" s="5" t="inlineStr">
@@ -21290,37 +21290,37 @@
     <row r="497">
       <c r="A497" s="3" t="inlineStr">
         <is>
-          <t>০২৬৮</t>
+          <t>০২৫৯</t>
         </is>
       </c>
       <c r="B497" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মাদ জাফর আলম</t>
+          <t>মোহাম্মদ মুহীউদ্দীন</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৯৫</t>
+          <t>১৫২৬১৪৮২১৭৩৭</t>
         </is>
       </c>
       <c r="D497" s="4" t="inlineStr">
         <is>
-          <t>আমীর আহমদ</t>
+          <t>শমসুল আলম</t>
         </is>
       </c>
       <c r="E497" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>আয়েশা খাতুন</t>
         </is>
       </c>
       <c r="F497" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা/জন্ম তারিখ:০৪/০৩/১৯৮৩</t>
         </is>
       </c>
       <c r="G497" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/১৯৮৫</t>
+          <t>০৪/০৩/১৯৮৩</t>
         </is>
       </c>
       <c r="H497" s="5" t="inlineStr">
@@ -21332,37 +21332,37 @@
     <row r="498">
       <c r="A498" s="3" t="inlineStr">
         <is>
-          <t>০২৬৯</t>
+          <t>০২৫৮</t>
         </is>
       </c>
       <c r="B498" s="4" t="inlineStr">
         <is>
-          <t>খলিলুর রহমান</t>
+          <t>নুরুল কবির</t>
         </is>
       </c>
       <c r="C498" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৯৬</t>
+          <t>১৫২৬১৪৮২১৭৩৬</t>
         </is>
       </c>
       <c r="D498" s="4" t="inlineStr">
         <is>
-          <t>আতর আলী</t>
+          <t>লাল মিয়া</t>
         </is>
       </c>
       <c r="E498" s="4" t="inlineStr">
         <is>
-          <t>নচিমা বেগম</t>
+          <t>জামিলা খাতুন</t>
         </is>
       </c>
       <c r="F498" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:১২/০৩/১৯৫৩</t>
         </is>
       </c>
       <c r="G498" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৩/১৯৬৮</t>
+          <t>১২/০৩/১৯৫৩</t>
         </is>
       </c>
       <c r="H498" s="5" t="inlineStr">
@@ -21374,79 +21374,79 @@
     <row r="499">
       <c r="A499" s="3" t="inlineStr">
         <is>
-          <t>০২৭০</t>
+          <t>০২৪৮</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আলম</t>
+          <t>নুর মুহাম্মদ</t>
         </is>
       </c>
       <c r="C499" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭৯৭</t>
+          <t>১৫২৬১৪৮২১৭২১</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>শফিকুর রহমান</t>
+          <t>নাজিম উদ্দিন</t>
         </is>
       </c>
       <c r="E499" s="4" t="inlineStr">
         <is>
-          <t>মুনিরা বেগম</t>
+          <t>নুর নাহর বেগম</t>
         </is>
       </c>
       <c r="F499" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G499" s="3" t="inlineStr">
         <is>
-          <t>০২/০৩/১৯৬৮</t>
+          <t>১০/০২/১৯৬৯</t>
         </is>
       </c>
       <c r="H499" s="5" t="inlineStr">
         <is>
-          <t>কুমুদিয়া পাড়া, চুনতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কুমুদিয়া পাড়া, চুনতী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="3" t="inlineStr">
         <is>
-          <t>০২৪২</t>
+          <t>০২৩৯</t>
         </is>
       </c>
       <c r="B500" s="4" t="inlineStr">
         <is>
-          <t>লোকমান হাকিম</t>
+          <t>আবুল হোসেন</t>
         </is>
       </c>
       <c r="C500" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭১১</t>
+          <t>১৫২৬১৪৮২১৭০৮</t>
         </is>
       </c>
       <c r="D500" s="4" t="inlineStr">
         <is>
-          <t>হায়দর আলী</t>
+          <t>মতিন মিয়া তালুকদার</t>
         </is>
       </c>
       <c r="E500" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F500" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G500" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৮৯</t>
+          <t>০২/০৪/১৯৮৩</t>
         </is>
       </c>
       <c r="H500" s="5" t="inlineStr">
@@ -21458,37 +21458,37 @@
     <row r="501">
       <c r="A501" s="3" t="inlineStr">
         <is>
-          <t>০২৩৯</t>
+          <t>০২৪৫</t>
         </is>
       </c>
       <c r="B501" s="4" t="inlineStr">
         <is>
-          <t>আবুল হোসেন</t>
+          <t>মীর আহমেদ</t>
         </is>
       </c>
       <c r="C501" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭০৮</t>
+          <t>১৫২৬১৪৮২১৭১৮</t>
         </is>
       </c>
       <c r="D501" s="4" t="inlineStr">
         <is>
-          <t>মতিন মিয়া তালুকদার</t>
+          <t>আবদুল আজিজ</t>
         </is>
       </c>
       <c r="E501" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>আবেদা খাতুন</t>
         </is>
       </c>
       <c r="F501" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G501" s="3" t="inlineStr">
         <is>
-          <t>০২/০৪/১৯৮৩</t>
+          <t>১০/০২/১৯৮৪</t>
         </is>
       </c>
       <c r="H501" s="5" t="inlineStr">
@@ -21500,37 +21500,37 @@
     <row r="502">
       <c r="A502" s="3" t="inlineStr">
         <is>
-          <t>০২৪৮</t>
+          <t>০২৪৪</t>
         </is>
       </c>
       <c r="B502" s="4" t="inlineStr">
         <is>
-          <t>নুর মুহাম্মদ</t>
+          <t>মুহাম্মদ ফওজুল আজিম</t>
         </is>
       </c>
       <c r="C502" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭২১</t>
+          <t>১৫২৬১৪৮২১৭১৭</t>
         </is>
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t>নাজিম উদ্দিন</t>
+          <t>হায়দর আলী</t>
         </is>
       </c>
       <c r="E502" s="4" t="inlineStr">
         <is>
-          <t>নুর নাহর বেগম</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F502" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G502" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৬৯</t>
+          <t>০৫/০২/১৯৭০</t>
         </is>
       </c>
       <c r="H502" s="5" t="inlineStr">
@@ -21542,17 +21542,17 @@
     <row r="503">
       <c r="A503" s="3" t="inlineStr">
         <is>
-          <t>০২৪৪</t>
+          <t>০২৪২</t>
         </is>
       </c>
       <c r="B503" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ফওজুল আজিম</t>
+          <t>লোকমান হাকিম</t>
         </is>
       </c>
       <c r="C503" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪৮২১৭১৭</t>
+          <t>১৫২৬১৪৮২১৭১১</t>
         </is>
       </c>
       <c r="D503" s="4" t="inlineStr">
@@ -21567,12 +21567,12 @@
       </c>
       <c r="F503" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G503" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৭০</t>
+          <t>০১/০৩/১৯৮৯</t>
         </is>
       </c>
       <c r="H503" s="5" t="inlineStr">
@@ -21584,27 +21584,27 @@
     <row r="504">
       <c r="A504" s="3" t="inlineStr">
         <is>
-          <t>১০৮১</t>
+          <t>০৮৯৭</t>
         </is>
       </c>
       <c r="B504" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবু সুফিয়ান</t>
+          <t>সাদেক হোসেন</t>
         </is>
       </c>
       <c r="C504" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৪৯২</t>
+          <t>১৫২৬১৪০০০৩০৯</t>
         </is>
       </c>
       <c r="D504" s="4" t="inlineStr">
         <is>
-          <t>জাফর আহমেদ</t>
+          <t>বদরুদ্দোজা</t>
         </is>
       </c>
       <c r="E504" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>রাবেয়া বেগম</t>
         </is>
       </c>
       <c r="F504" s="3" t="inlineStr">
@@ -21614,175 +21614,175 @@
       </c>
       <c r="G504" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৬/১৯৯১</t>
+          <t>০২/০৩/১৯৯০</t>
         </is>
       </c>
       <c r="H504" s="5" t="inlineStr">
         <is>
-          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="3" t="inlineStr">
         <is>
-          <t>১১৯৯</t>
+          <t>০৮৮৫</t>
         </is>
       </c>
       <c r="B505" s="4" t="inlineStr">
         <is>
-          <t>রকিবুল মোস্তাফা</t>
+          <t>মোহাম্মদ আবু তাহের</t>
         </is>
       </c>
       <c r="C505" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৬৯৭</t>
+          <t>১৫২৬১৪০০০২৬৪</t>
         </is>
       </c>
       <c r="D505" s="4" t="inlineStr">
         <is>
-          <t>রফিক আহমেদ</t>
+          <t>আবদুল খালেক</t>
         </is>
       </c>
       <c r="E505" s="4" t="inlineStr">
         <is>
-          <t>ছালেহা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F505" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>মিস্ট্রি</t>
         </is>
       </c>
       <c r="G505" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৯৯</t>
+          <t>০৩/০৭/১৯৮৯</t>
         </is>
       </c>
       <c r="H505" s="5" t="inlineStr">
         <is>
-          <t>৬৩৩, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="3" t="inlineStr">
         <is>
-          <t>১১৪১</t>
+          <t>০৮৭৭</t>
         </is>
       </c>
       <c r="B506" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আমিন</t>
+          <t>মুহাম্মদ কাশেম</t>
         </is>
       </c>
       <c r="C506" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৯৩</t>
+          <t>১৫২৬১৪০০০২৩৪</t>
         </is>
       </c>
       <c r="D506" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>ফেরদৌস</t>
         </is>
       </c>
       <c r="E506" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>জাহানারা বেগম</t>
         </is>
       </c>
       <c r="F506" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G506" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৯৩</t>
+          <t>০১/০৫/১৯৭৭</t>
         </is>
       </c>
       <c r="H506" s="5" t="inlineStr">
         <is>
-          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="3" t="inlineStr">
         <is>
-          <t>১১৯৩</t>
+          <t>০৮৭৩</t>
         </is>
       </c>
       <c r="B507" s="4" t="inlineStr">
         <is>
-          <t>আজমিনুল করিম</t>
+          <t>মোঃ মোজাফফর</t>
         </is>
       </c>
       <c r="C507" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৬৮৩</t>
+          <t>১৫২৬১৪০০০২১৯</t>
         </is>
       </c>
       <c r="D507" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মনছুর আলম</t>
+          <t>মুহাম্মদ শহীদ উল্লাহ</t>
         </is>
       </c>
       <c r="E507" s="4" t="inlineStr">
         <is>
-          <t>শাহানাজ পারভীন</t>
+          <t>আয়েশা খাতুন</t>
         </is>
       </c>
       <c r="F507" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G507" s="3" t="inlineStr">
         <is>
-          <t>২২/০৩/১৯৯৮</t>
+          <t>১০/০৮/১৯৯০</t>
         </is>
       </c>
       <c r="H507" s="5" t="inlineStr">
         <is>
-          <t>৩৮৮, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৯</t>
+          <t>০৮৭০</t>
         </is>
       </c>
       <c r="B508" s="4" t="inlineStr">
         <is>
-          <t>মোঃ রহিম</t>
+          <t>মোঃ কবেল</t>
         </is>
       </c>
       <c r="C508" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২১২</t>
+          <t>১৫২৬১৪০০০২১৩</t>
         </is>
       </c>
       <c r="D508" s="4" t="inlineStr">
         <is>
-          <t>নবী হোসেন</t>
+          <t>আখতার মিয়া</t>
         </is>
       </c>
       <c r="E508" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>নূর জাহান বেগম</t>
         </is>
       </c>
       <c r="F508" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G508" s="3" t="inlineStr">
         <is>
-          <t>১২/১১/১৯৯০</t>
+          <t>০৫/০২/১৯৯১</t>
         </is>
       </c>
       <c r="H508" s="5" t="inlineStr">
@@ -21794,37 +21794,37 @@
     <row r="509">
       <c r="A509" s="3" t="inlineStr">
         <is>
-          <t>০৮৭০</t>
+          <t>১১৩০</t>
         </is>
       </c>
       <c r="B509" s="4" t="inlineStr">
         <is>
-          <t>মোঃ কবেল</t>
+          <t>মুহাম্মদ বেলাল</t>
         </is>
       </c>
       <c r="C509" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২১৩</t>
+          <t>১৫২৬১৪০০০৫৬৭</t>
         </is>
       </c>
       <c r="D509" s="4" t="inlineStr">
         <is>
-          <t>আখতার মিয়া</t>
+          <t>নুর আহমেদ</t>
         </is>
       </c>
       <c r="E509" s="4" t="inlineStr">
         <is>
-          <t>নূর জাহান বেগম</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F509" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G509" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৯১</t>
+          <t>০১/০৬/১৯৯০</t>
         </is>
       </c>
       <c r="H509" s="5" t="inlineStr">
@@ -21836,37 +21836,37 @@
     <row r="510">
       <c r="A510" s="3" t="inlineStr">
         <is>
-          <t>০৮৭২</t>
+          <t>০৮৬৯</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মঈন উদ্দিন</t>
+          <t>মোঃ রহিম</t>
         </is>
       </c>
       <c r="C510" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২১৮</t>
+          <t>১৫২৬১৪০০০২১২</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>শামসুল আলম</t>
+          <t>নবী হোসেন</t>
         </is>
       </c>
       <c r="E510" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা খাতুন</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F510" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G510" s="3" t="inlineStr">
         <is>
-          <t>০২/০১/১৯৯০</t>
+          <t>১২/১১/১৯৯০</t>
         </is>
       </c>
       <c r="H510" s="5" t="inlineStr">
@@ -21878,121 +21878,121 @@
     <row r="511">
       <c r="A511" s="3" t="inlineStr">
         <is>
-          <t>০৮৭৩</t>
+          <t>১১৯৯</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মোজাফফর</t>
+          <t>রকিবুল মোস্তাফা</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২১৯</t>
+          <t>১৫২৬১৪০০০৬৯৭</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ শহীদ উল্লাহ</t>
+          <t>রফিক আহমেদ</t>
         </is>
       </c>
       <c r="E511" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা খাতুন</t>
+          <t>ছালেহা বেগম</t>
         </is>
       </c>
       <c r="F511" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G511" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৯০</t>
+          <t>১০/০২/১৯৯৯</t>
         </is>
       </c>
       <c r="H511" s="5" t="inlineStr">
         <is>
-          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬৩৩, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="3" t="inlineStr">
         <is>
-          <t>০৮৭৭</t>
+          <t>১১৪১</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ কাশেম</t>
+          <t>নুরুল আমিন</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৩৪</t>
+          <t>১৫২৬১৪০০০৫৯৩</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>ফেরদৌস</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E512" s="4" t="inlineStr">
         <is>
-          <t>জাহানারা বেগম</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F512" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G512" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৭৭</t>
+          <t>১০/০৫/১৯৯৩</t>
         </is>
       </c>
       <c r="H512" s="5" t="inlineStr">
         <is>
-          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="3" t="inlineStr">
         <is>
-          <t>০৮৮৫</t>
+          <t>০৮৬৮</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবু তাহের</t>
+          <t>মোহাম্মদ রহিম</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৬৪</t>
+          <t>১৫২৬১৪০০০২১০</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খালেক</t>
+          <t>আশরফ আলী</t>
         </is>
       </c>
       <c r="E513" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F513" s="3" t="inlineStr">
         <is>
-          <t>মিস্ট্রি</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G513" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৭/১৯৮৯</t>
+          <t>০১/১১/১৯৯০</t>
         </is>
       </c>
       <c r="H513" s="5" t="inlineStr">
@@ -22004,79 +22004,79 @@
     <row r="514">
       <c r="A514" s="3" t="inlineStr">
         <is>
-          <t>০৮৯৭</t>
+          <t>০৮৭২</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
         <is>
-          <t>সাদেক হোসেন</t>
+          <t>মোঃ মঈন উদ্দিন</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৩০৯</t>
+          <t>১৫২৬১৪০০০২১৮</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>বদরুদ্দোজা</t>
+          <t>শামসুল আলম</t>
         </is>
       </c>
       <c r="E514" s="4" t="inlineStr">
         <is>
-          <t>রাবেয়া বেগম</t>
+          <t>আয়েশা খাতুন</t>
         </is>
       </c>
       <c r="F514" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G514" s="3" t="inlineStr">
         <is>
-          <t>০২/০৩/১৯৯০</t>
+          <t>০২/০১/১৯৯০</t>
         </is>
       </c>
       <c r="H514" s="5" t="inlineStr">
         <is>
-          <t>., কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="3" t="inlineStr">
         <is>
-          <t>১১৩০</t>
+          <t>০৯২৩</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ বেলাল</t>
+          <t>মোহাম্মদ রাসেল</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৬৭</t>
+          <t>১৫২৬১৪০০০২৫৫</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>নুর আহমেদ</t>
+          <t>ছালেহ আহমেদ</t>
         </is>
       </c>
       <c r="E515" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>মুনিরা বেগম</t>
         </is>
       </c>
       <c r="F515" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G515" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৯০</t>
+          <t>০১/০৮/১৯৯২</t>
         </is>
       </c>
       <c r="H515" s="5" t="inlineStr">
@@ -22088,27 +22088,27 @@
     <row r="516">
       <c r="A516" s="3" t="inlineStr">
         <is>
-          <t>০৯২৩</t>
+          <t>০৯৫১</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রাসেল</t>
+          <t>মাহফুজুর রহমান</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৫৫</t>
+          <t>১৫২৬১৪০০০২৫৯</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>ছালেহ আহমেদ</t>
+          <t>মোঃ ইলিয়াছ</t>
         </is>
       </c>
       <c r="E516" s="4" t="inlineStr">
         <is>
-          <t>মুনিরা বেগম</t>
+          <t>চেমন আরা বেগম</t>
         </is>
       </c>
       <c r="F516" s="3" t="inlineStr">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="G516" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/১৯৯২</t>
+          <t>১০/১২/১৯৯৩</t>
         </is>
       </c>
       <c r="H516" s="5" t="inlineStr">
@@ -22130,37 +22130,37 @@
     <row r="517">
       <c r="A517" s="3" t="inlineStr">
         <is>
-          <t>০৯৩০</t>
+          <t>০৯৩৩</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সিরাজুল ইসলাম</t>
+          <t>কায়সার আহমেদ</t>
         </is>
       </c>
       <c r="C517" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৮৫</t>
+          <t>১৫২৬১৪০০০৩১০</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>সালেহ আহমেদ</t>
+          <t>আবদুল মতলব</t>
         </is>
       </c>
       <c r="E517" s="4" t="inlineStr">
         <is>
-          <t>মসুদা খাতুন</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="F517" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G517" s="3" t="inlineStr">
         <is>
-          <t>২২/১২/১৯৯২</t>
+          <t>০৭/০৯/১৯৯২</t>
         </is>
       </c>
       <c r="H517" s="5" t="inlineStr">
@@ -22214,37 +22214,37 @@
     <row r="519">
       <c r="A519" s="3" t="inlineStr">
         <is>
-          <t>০৯৫১</t>
+          <t>০৯৬৬</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
         <is>
-          <t>মাহফুজুর রহমান</t>
+          <t>মোঃ বেলাল উদ্দীন</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৫৯</t>
+          <t>১৫২৬১৪০০০২৪৬</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইলিয়াছ</t>
+          <t>শামসুল আলম</t>
         </is>
       </c>
       <c r="E519" s="4" t="inlineStr">
         <is>
-          <t>চেমন আরা বেগম</t>
+          <t>মোছাম্মৎ আয়েশা</t>
         </is>
       </c>
       <c r="F519" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G519" s="3" t="inlineStr">
         <is>
-          <t>১০/১২/১৯৯৩</t>
+          <t>০৫/০৫/১৯৯৪</t>
         </is>
       </c>
       <c r="H519" s="5" t="inlineStr">
@@ -22256,27 +22256,27 @@
     <row r="520">
       <c r="A520" s="3" t="inlineStr">
         <is>
-          <t>০৯৬৬</t>
+          <t>১১২৯</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
         <is>
-          <t>মোঃ বেলাল উদ্দীন</t>
+          <t>মোঃ আবু ছালেহ</t>
         </is>
       </c>
       <c r="C520" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২৪৬</t>
+          <t>১৫২৬১৪০০০৫৬৬</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>শামসুল আলম</t>
+          <t>আবদুল খালেক</t>
         </is>
       </c>
       <c r="E520" s="4" t="inlineStr">
         <is>
-          <t>মোছাম্মৎ আয়েশা</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F520" s="3" t="inlineStr">
@@ -22286,7 +22286,7 @@
       </c>
       <c r="G520" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৫/১৯৯৪</t>
+          <t>০১/০৫/১৯৯৫</t>
         </is>
       </c>
       <c r="H520" s="5" t="inlineStr">
@@ -22298,37 +22298,37 @@
     <row r="521">
       <c r="A521" s="3" t="inlineStr">
         <is>
-          <t>১১২৯</t>
+          <t>১১২৬</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবু ছালেহ</t>
+          <t>মুহাম্মদ রিদুওয়ান</t>
         </is>
       </c>
       <c r="C521" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৬৬</t>
+          <t>১৫২৬১৪০০০৫৬৩</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খালেক</t>
+          <t>শেখ আহমেদ</t>
         </is>
       </c>
       <c r="E521" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>শাহেদা বেগম</t>
         </is>
       </c>
       <c r="F521" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G521" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৯৫</t>
+          <t>০১/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H521" s="5" t="inlineStr">
@@ -22340,37 +22340,37 @@
     <row r="522">
       <c r="A522" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৮</t>
+          <t>১১১৯</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রহিম</t>
+          <t>মোহাম্মদ নেজাম উদ্দিন</t>
         </is>
       </c>
       <c r="C522" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০২১০</t>
+          <t>১৫২৬১৪০০০৫৫৪</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>আশরফ আলী</t>
+          <t>বদরুল আলম</t>
         </is>
       </c>
       <c r="E522" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="F522" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G522" s="3" t="inlineStr">
         <is>
-          <t>০১/১১/১৯৯০</t>
+          <t>০১/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H522" s="5" t="inlineStr">
@@ -22382,79 +22382,79 @@
     <row r="523">
       <c r="A523" s="3" t="inlineStr">
         <is>
-          <t>১০৭০</t>
+          <t>১১৬৬</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>মোঃ জুবাইর</t>
+          <t>মোহাম্মদ করিম</t>
         </is>
       </c>
       <c r="C523" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৪৬৪</t>
+          <t>১৫২৬১৪০০০৬৪৪</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আমিন</t>
+          <t>নবী হোসাইন</t>
         </is>
       </c>
       <c r="E523" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>আবোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F523" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G523" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৯৫</t>
+          <t>২০/০১/১৯৯৯</t>
         </is>
       </c>
       <c r="H523" s="5" t="inlineStr">
         <is>
-          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>□, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="3" t="inlineStr">
         <is>
-          <t>১১১৯</t>
+          <t>১১১৭</t>
         </is>
       </c>
       <c r="B524" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নেজাম উদ্দিন</t>
+          <t>বশির আহমেদ</t>
         </is>
       </c>
       <c r="C524" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৫৪</t>
+          <t>১৫২৬১৪০০০৫৫২</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>বদরুল আলম</t>
+          <t>হেদায়েত আলী</t>
         </is>
       </c>
       <c r="E524" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>রাহেলা বেগম</t>
         </is>
       </c>
       <c r="F524" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G524" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/১৯৯৭</t>
+          <t>১৭/০৭/১৯৯৩</t>
         </is>
       </c>
       <c r="H524" s="5" t="inlineStr">
@@ -22466,37 +22466,37 @@
     <row r="525">
       <c r="A525" s="3" t="inlineStr">
         <is>
-          <t>১১৬৬</t>
+          <t>১১৬৯</t>
         </is>
       </c>
       <c r="B525" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ করিম</t>
+          <t>আব্দুল জব্বার</t>
         </is>
       </c>
       <c r="C525" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৬৪৪</t>
+          <t>১৫২৬১৪০০০৬৪৭</t>
         </is>
       </c>
       <c r="D525" s="4" t="inlineStr">
         <is>
-          <t>নবী হোসাইন</t>
+          <t>আবদুল জলিল</t>
         </is>
       </c>
       <c r="E525" s="4" t="inlineStr">
         <is>
-          <t>আবোয়ারা বেগম</t>
+          <t>জোছনা আক্তার</t>
         </is>
       </c>
       <c r="F525" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G525" s="3" t="inlineStr">
         <is>
-          <t>২০/০১/১৯৯৯</t>
+          <t>০২/০৬/১৯৯৯</t>
         </is>
       </c>
       <c r="H525" s="5" t="inlineStr">
@@ -22508,37 +22508,37 @@
     <row r="526">
       <c r="A526" s="3" t="inlineStr">
         <is>
-          <t>১১১৭</t>
+          <t>১০৮১</t>
         </is>
       </c>
       <c r="B526" s="4" t="inlineStr">
         <is>
-          <t>বশির আহমেদ</t>
+          <t>মোঃ আবু সুফিয়ান</t>
         </is>
       </c>
       <c r="C526" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৫২</t>
+          <t>১৫২৬১৪০০০৪৯২</t>
         </is>
       </c>
       <c r="D526" s="4" t="inlineStr">
         <is>
-          <t>হেদায়েত আলী</t>
+          <t>জাফর আহমেদ</t>
         </is>
       </c>
       <c r="E526" s="4" t="inlineStr">
         <is>
-          <t>রাহেলা বেগম</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F526" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G526" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৭/১৯৯৩</t>
+          <t>০৩/০৬/১৯৯১</t>
         </is>
       </c>
       <c r="H526" s="5" t="inlineStr">
@@ -22550,111 +22550,111 @@
     <row r="527">
       <c r="A527" s="3" t="inlineStr">
         <is>
-          <t>১১৬৯</t>
+          <t>১০৭০</t>
         </is>
       </c>
       <c r="B527" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল জব্বার</t>
+          <t>মোঃ জুবাইর</t>
         </is>
       </c>
       <c r="C527" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৬৪৭</t>
+          <t>১৫২৬১৪০০০৪৬৪</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জলিল</t>
+          <t>নুরুল আমিন</t>
         </is>
       </c>
       <c r="E527" s="4" t="inlineStr">
         <is>
-          <t>জোছনা আক্তার</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="F527" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>কৃষক/জন্ম তারিখ:০৫/০১/১৯৯৫</t>
         </is>
       </c>
       <c r="G527" s="3" t="inlineStr">
         <is>
-          <t>০২/০৬/১৯৯৯</t>
+          <t>০৫/০১/১৯৯৫</t>
         </is>
       </c>
       <c r="H527" s="5" t="inlineStr">
         <is>
-          <t>□, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="3" t="inlineStr">
         <is>
-          <t>০৯৩৩</t>
+          <t>১১৯৩</t>
         </is>
       </c>
       <c r="B528" s="4" t="inlineStr">
         <is>
-          <t>কায়সার আহমেদ</t>
+          <t>আজমিনুল করিম</t>
         </is>
       </c>
       <c r="C528" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৩১০</t>
+          <t>১৫২৬১৪০০০৬৮৩</t>
         </is>
       </c>
       <c r="D528" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মতলব</t>
+          <t>মোঃ মনছুর আলম</t>
         </is>
       </c>
       <c r="E528" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>শাহানাজ পারভীন</t>
         </is>
       </c>
       <c r="F528" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G528" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৯/১৯৯২</t>
+          <t>২২/০৩/১৯৯৮</t>
         </is>
       </c>
       <c r="H528" s="5" t="inlineStr">
         <is>
-          <t>কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৮৮, কুমুদিয়া পাড়া, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="3" t="inlineStr">
         <is>
-          <t>১১২৬</t>
+          <t>০৯৩০</t>
         </is>
       </c>
       <c r="B529" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ রিদুওয়ান</t>
+          <t>মোঃ সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="C529" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬১৪০০০৫৬৩</t>
+          <t>১৫২৬১৪০০০২৮৫</t>
         </is>
       </c>
       <c r="D529" s="4" t="inlineStr">
         <is>
-          <t>শেখ আহমেদ</t>
+          <t>সালেহ আহমেদ</t>
         </is>
       </c>
       <c r="E529" s="4" t="inlineStr">
         <is>
-          <t>শাহেদা বেগম</t>
+          <t>মসুদা খাতুন</t>
         </is>
       </c>
       <c r="F529" s="3" t="inlineStr">
@@ -22664,7 +22664,7 @@
       </c>
       <c r="G529" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/১৯৯৭</t>
+          <t>২২/১২/১৯৯২</t>
         </is>
       </c>
       <c r="H529" s="5" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="F589" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:০১/০২/১৯৭২</t>
         </is>
       </c>
       <c r="G589" s="3" t="inlineStr">
@@ -25599,7 +25599,7 @@
       </c>
       <c r="F599" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:০১/০১/১৯৮৮</t>
         </is>
       </c>
       <c r="G599" s="3" t="inlineStr">
@@ -25641,7 +25641,7 @@
       </c>
       <c r="F600" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:২০/০২/১৯৭৮</t>
         </is>
       </c>
       <c r="G600" s="3" t="inlineStr">
@@ -25683,7 +25683,7 @@
       </c>
       <c r="F601" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:১৫/০১/১৯৮১</t>
         </is>
       </c>
       <c r="G601" s="3" t="inlineStr">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="F610" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:২২/০৭/১৯৮৬</t>
         </is>
       </c>
       <c r="G610" s="3" t="inlineStr">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="F612" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:০১/০৩/১৯৬৬</t>
         </is>
       </c>
       <c r="G612" s="3" t="inlineStr">
@@ -26271,7 +26271,7 @@
       </c>
       <c r="F615" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:১২/০৩/১৯৬৭</t>
         </is>
       </c>
       <c r="G615" s="3" t="inlineStr">
@@ -26313,7 +26313,7 @@
       </c>
       <c r="F616" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:০২/০২/১৯৭২</t>
         </is>
       </c>
       <c r="G616" s="3" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="F617" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:০৪/০২/১৯৮৮</t>
         </is>
       </c>
       <c r="G617" s="3" t="inlineStr">
@@ -27783,7 +27783,7 @@
       </c>
       <c r="F651" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:১০/১২/১৯৯১</t>
         </is>
       </c>
       <c r="G651" s="3" t="inlineStr">
@@ -31773,7 +31773,7 @@
       </c>
       <c r="F746" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০৯/০৩/২০০৭</t>
         </is>
       </c>
       <c r="G746" s="3" t="inlineStr">
@@ -33453,7 +33453,7 @@
       </c>
       <c r="F786" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৮/০৯/২০০৩</t>
         </is>
       </c>
       <c r="G786" s="3" t="inlineStr">
@@ -36141,7 +36141,7 @@
       </c>
       <c r="F850" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>দিনমজুর/জন্ম তারিখ:০৫/০৩/১৯৩৮</t>
         </is>
       </c>
       <c r="G850" s="3" t="inlineStr">
@@ -37863,7 +37863,7 @@
       </c>
       <c r="F891" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক/জন্ম তারিখ:১৭/০৯/১৯৯৩</t>
         </is>
       </c>
       <c r="G891" s="3" t="inlineStr">
@@ -39207,7 +39207,7 @@
       </c>
       <c r="F923" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৫/০৪/২০০১</t>
         </is>
       </c>
       <c r="G923" s="3" t="inlineStr">
@@ -39963,7 +39963,7 @@
       </c>
       <c r="F941" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০১/১৯৯১</t>
         </is>
       </c>
       <c r="G941" s="3" t="inlineStr">
@@ -40593,7 +40593,7 @@
       </c>
       <c r="F956" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০৬/০৫/১৯৯৮</t>
         </is>
       </c>
       <c r="G956" s="3" t="inlineStr">
@@ -40803,7 +40803,7 @@
       </c>
       <c r="F961" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৮/০৯/১৯৮৯</t>
         </is>
       </c>
       <c r="G961" s="3" t="inlineStr">
@@ -42357,7 +42357,7 @@
       </c>
       <c r="F998" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০৭/১৯৬৫</t>
         </is>
       </c>
       <c r="G998" s="3" t="inlineStr">
@@ -50169,7 +50169,7 @@
       </c>
       <c r="F1184" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৭/০১/১৯৯৮</t>
         </is>
       </c>
       <c r="G1184" s="3" t="inlineStr">
@@ -51933,7 +51933,7 @@
       </c>
       <c r="F1226" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০১/১৯৯৮</t>
         </is>
       </c>
       <c r="G1226" s="3" t="inlineStr">
@@ -56217,7 +56217,7 @@
       </c>
       <c r="F1328" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২০/০২/১৯৯৭</t>
         </is>
       </c>
       <c r="G1328" s="3" t="inlineStr">
@@ -59577,7 +59577,7 @@
       </c>
       <c r="F1408" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৩/০৯/১৯৯৮</t>
         </is>
       </c>
       <c r="G1408" s="3" t="inlineStr">
@@ -59619,7 +59619,7 @@
       </c>
       <c r="F1409" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০৩/০৮/১৯৯৮</t>
         </is>
       </c>
       <c r="G1409" s="3" t="inlineStr">
@@ -68397,7 +68397,7 @@
       </c>
       <c r="F1618" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>প্রবাসী/জন্ম তারিখ:০৩/০১/১৯৯১</t>
         </is>
       </c>
       <c r="G1618" s="3" t="inlineStr">
@@ -68523,7 +68523,7 @@
       </c>
       <c r="F1621" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৫/০৫/২০০৩</t>
         </is>
       </c>
       <c r="G1621" s="3" t="inlineStr">
@@ -69783,7 +69783,7 @@
       </c>
       <c r="F1651" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:০১/০১/১৯৯৬</t>
         </is>
       </c>
       <c r="G1651" s="3" t="inlineStr">
@@ -69825,7 +69825,7 @@
       </c>
       <c r="F1652" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১২/০৯/১৯৯৮</t>
         </is>
       </c>
       <c r="G1652" s="3" t="inlineStr">
